--- a/2021-02-23_job_data scientist_in_germany.xlsx
+++ b/2021-02-23_job_data scientist_in_germany.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="581">
   <si>
     <t>title</t>
   </si>
@@ -37,108 +37,114 @@
     <t>link</t>
   </si>
   <si>
+    <t>Data Scientist - Training Specialist (m/w/d)</t>
+  </si>
+  <si>
     <t>Data Scientist (m/f/d) Forchheim</t>
   </si>
   <si>
-    <t>Data Scientist - Training Specialist (m/w/d)</t>
+    <t>(Senior) Data Scientist (m/f/x)</t>
+  </si>
+  <si>
+    <t>Data Scientists (m/w/d) (Informatiker/in (Hochschule))</t>
+  </si>
+  <si>
+    <t>Junior Data Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist &amp; Lead Teacher</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist Projekte Data Mining (m/w/d)</t>
+  </si>
+  <si>
+    <t>Working Student- Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Scientist (w/m/d) in Frankfurt (Main)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist, Experimentation / Global Data (f/m/d)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist - Adtech (f/m/d)</t>
+  </si>
+  <si>
+    <t>Join the DABBEL Team - Data Scientist</t>
+  </si>
+  <si>
+    <t>Computational Biologist/Data Scientist as PostDoc for Cell a...</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist / ML Engineer</t>
+  </si>
+  <si>
+    <t>Mathematiker/Aktuar und Data Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>(Senior) Data Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist/Analyst (w/m/d) im Bereich prüfungsnahe Berat...</t>
+  </si>
+  <si>
+    <t>Tenure Track Position for a Scientist (m/f/d) on “Model–Data...</t>
+  </si>
+  <si>
+    <t>Web Analyst / Data Scientist E-Commerce (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist (d/f/m) Credit Risk/Fraud Detection</t>
+  </si>
+  <si>
+    <t>Data Scientist KI-Labor (m/w/d)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist</t>
+  </si>
+  <si>
+    <t>Vertriebscontroller/Data Scientist (m/w/n)</t>
+  </si>
+  <si>
+    <t>Data Scientist / Business Analyst (m/w/d)</t>
   </si>
   <si>
     <t>Data Scientist (w/m/d)</t>
   </si>
   <si>
-    <t>(Senior) Data Scientist (m/f/x)</t>
-  </si>
-  <si>
-    <t>Data Scientists (m/w/d) (Informatiker/in (Hochschule))</t>
-  </si>
-  <si>
-    <t>Junior Data Scientist (m/w/d)</t>
-  </si>
-  <si>
-    <t>Working Student- Data Scientist</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist Projekte Data Mining (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist &amp; Lead Teacher</t>
-  </si>
-  <si>
-    <t>Mathematiker/Aktuar und Data Scientist (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist</t>
-  </si>
-  <si>
-    <t>Computational Biologist/Data Scientist as PostDoc for Cell a...</t>
-  </si>
-  <si>
-    <t>Data Scientist (w/m/d) in Frankfurt (Main)</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist, Experimentation / Global Data (f/m/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist/Analyst (w/m/d) im Bereich prüfungsnahe Berat...</t>
-  </si>
-  <si>
-    <t>(Senior) Data Scientist (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d)</t>
-  </si>
-  <si>
-    <t>Join the DABBEL Team - Data Scientist</t>
-  </si>
-  <si>
-    <t>Web Analyst / Data Scientist E-Commerce (m/w/d)</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist - Adtech (f/m/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist / ML Engineer</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist (d/f/m) Credit Risk/Fraud Detection</t>
-  </si>
-  <si>
-    <t>Data Scientist KI-Labor (m/w/d)</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist</t>
-  </si>
-  <si>
-    <t>Vertriebscontroller/Data Scientist (m/w/n)</t>
+    <t>Data Scientist mit Berufserfahrung</t>
+  </si>
+  <si>
+    <t>Business Intelligence / Data Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>Software Developer C++ / Data Scientist (m/f/d)</t>
+  </si>
+  <si>
+    <t>Data Analyst/Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) Pricing</t>
   </si>
   <si>
     <t>Senior Data Scientist (m/w/d)</t>
   </si>
   <si>
-    <t>Data Scientist (m/w/d) Pricing</t>
-  </si>
-  <si>
-    <t>Software Developer C++ / Data Scientist (m/f/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist mit Berufserfahrung</t>
-  </si>
-  <si>
-    <t>Data Scientist / Business Analyst (m/w/d)</t>
-  </si>
-  <si>
-    <t>Business Intelligence / Data Scientist (m/w/d)</t>
+    <t>Entwickler Business Intelligence (m/w/d) - Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Scientist im Bereich Pricing (m/w/d)</t>
   </si>
   <si>
     <t>Senior Data Scientist (m|w|d)</t>
   </si>
   <si>
-    <t>Entwickler Business Intelligence (m/w/d) - Data Scientist</t>
-  </si>
-  <si>
-    <t>Data Scientist im Bereich Pricing (m/w/d)</t>
-  </si>
-  <si>
     <t>Machine Learning Engineer/Data Scientist (m/w/d)</t>
   </si>
   <si>
@@ -154,22 +160,31 @@
     <t>Data Scientist (m/w/d) - Essen</t>
   </si>
   <si>
+    <t>Data Scientist Process Mining (m/w/d)</t>
+  </si>
+  <si>
+    <t>Customer-facing Data Scientist / Sales Engineer (m/f/d)</t>
+  </si>
+  <si>
     <t>Senior Data Scientist Advanced Manufacturing Data Analytics...</t>
   </si>
   <si>
     <t>CRM- Analyst / Data Scientist (m/w/d)</t>
   </si>
   <si>
-    <t>Customer-facing Data Scientist / Sales Engineer (m/f/d)</t>
-  </si>
-  <si>
     <t>Data Scientist (m/f/x)</t>
   </si>
   <si>
     <t>Data Scientisten (M/W/D)</t>
   </si>
   <si>
-    <t>Data Scientist Process Mining (m/w/d)</t>
+    <t>Cloud Architect / Big Data Engineer / Data Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist - Product Development (w/m/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist Life Science (m/f/d)</t>
   </si>
   <si>
     <t>Data Scientist (m/f/d)</t>
@@ -193,28 +208,55 @@
     <t>Data Scientist / Data Analyst (m/w/d)</t>
   </si>
   <si>
-    <t>Data Scientist - Product Development (w/m/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist Life Science (m/f/d)</t>
+    <t>Senior Data Scientist (m/w/d) - Bank - Frankfurt [DIH]</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist (d/f/m) MedTech</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist (w/m/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) Risikomanagement</t>
   </si>
   <si>
     <t>Data Scientist (m/w/d) Informatiker / Physiker / Mathematiker</t>
   </si>
   <si>
-    <t>Senior Data Scientist (m/w/d) - Bank - Frankfurt [DIH]</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist (d/f/m) MedTech</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) Risikomanagement</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist (w/m/d)</t>
-  </si>
-  <si>
-    <t>Cloud Architect / Big Data Engineer / Data Scientist (m/w/d)</t>
+    <t>Junior Consultant Analytics / Data Scientist (f/m/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) Image Analytics</t>
+  </si>
+  <si>
+    <t>Actuarial Data Scientist &amp; Fullstack Developer (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist (Intern)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist Advanced Manufacturing Data Analytics als Projektleiter (m/w/d)</t>
+  </si>
+  <si>
+    <t>(Junior) Data Scientist (w/m/d) mit Engineering Interesse</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) – Integration &amp; Yield Enhancement Eng...</t>
+  </si>
+  <si>
+    <t>Für Freelancer: Data Scientist | Computer Vision | Python |...</t>
+  </si>
+  <si>
+    <t>Entwickler Business Intelligence (m/w/d) - Data Scientist in...</t>
+  </si>
+  <si>
+    <t>Junior Consultant Analytics / Data Scientist (w/m/d)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist Machine Learning</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) Automotive</t>
   </si>
   <si>
     <t>Data Scientist (m/w/d) - Informatician</t>
@@ -223,57 +265,39 @@
     <t>Data Scientist – Automotive/Industry (M/W/D)</t>
   </si>
   <si>
-    <t>Data Scientist (Intern)</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) – Integration &amp; Yield Enhancement Eng...</t>
-  </si>
-  <si>
-    <t>Junior Consultant Analytics / Data Scientist (w/m/d)</t>
+    <t>Data Scientist / Data Engineer (m/w/d) für die KION IoT Systems GmbH am Standort Wangen</t>
+  </si>
+  <si>
+    <t>Data Scientist - Computer Vision (m/w/d)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist – Customer Analytics (m/f/d)</t>
+  </si>
+  <si>
+    <t>Medical Information Scientist as a Data Steward Clinical Tri...</t>
+  </si>
+  <si>
+    <t>Für Freelancer: Freiberuflicher Data-Scientist (m/w/d) für R...</t>
+  </si>
+  <si>
+    <t>Für Freelancer: Data Scientist for Marketing Model Mix</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) Supply Chain Management</t>
   </si>
   <si>
     <t>Junior Data scientist (m/w/d)</t>
   </si>
   <si>
-    <t>Entwickler Business Intelligence (m/w/d) - Data Scientist in...</t>
-  </si>
-  <si>
-    <t>Für Freelancer: Data Scientist | Computer Vision | Python |...</t>
-  </si>
-  <si>
-    <t>(Junior) Data Scientist (w/m/d) mit Engineering Interesse</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) Automotive</t>
-  </si>
-  <si>
-    <t>Data Scientist - Computer Vision (m/w/d)</t>
-  </si>
-  <si>
-    <t>Junior Consultant Analytics / Data Scientist (f/m/d)</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist – Customer Analytics (m/f/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist / Data Engineer (m/w/d) für die KION IoT Systems GmbH am Standort Wangen</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist Advanced Manufacturing Data Analytics als Projektleiter (m/w/d)</t>
-  </si>
-  <si>
-    <t>Actuarial Data Scientist &amp; Fullstack Developer (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) Image Analytics</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist Machine Learning</t>
-  </si>
-  <si>
     <t>Data Scientist - E-Commerce Investment Startup (m/f/d)</t>
   </si>
   <si>
+    <t>Senior Data Scientist (w/m/d) im Vertriebs- und Risikocontrolling</t>
+  </si>
+  <si>
+    <t>Data Scientist* CRM</t>
+  </si>
+  <si>
     <t>Data Scientist Manager</t>
   </si>
   <si>
@@ -283,151 +307,145 @@
     <t>Data Scientist / Statistiker (m/w/d) mit Affinität zu Progra...</t>
   </si>
   <si>
+    <t>Werkstudent Data Scientist w/m/d</t>
+  </si>
+  <si>
     <t>Data Scientist w/m/d</t>
   </si>
   <si>
-    <t>Werkstudent Data Scientist w/m/d</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) Supply Chain Management</t>
+    <t>Data Engineer/Data Scientist (m/f/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist - All Levels</t>
+  </si>
+  <si>
+    <t>Big Data Analyst / Data Scientist</t>
+  </si>
+  <si>
+    <t>Junior Pricing Actuary / Mathematician / Data Scientist (m/f/d) - Retail</t>
+  </si>
+  <si>
+    <t>Data Scientist* / Softwareentwickler*</t>
+  </si>
+  <si>
+    <t>Data Scientist (gn*) Prozessentwicklung</t>
+  </si>
+  <si>
+    <t>Data Analyst (m/w/d) - Data Scientist</t>
   </si>
   <si>
     <t>(Junior) Data Scientist / Data Analyst (w/m/d)</t>
   </si>
   <si>
-    <t>Für Freelancer: Data Scientist for Marketing Model Mix</t>
-  </si>
-  <si>
-    <t>Data Scientist* CRM</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist (w/m/d) im Vertriebs- und Risikocontrolling</t>
+    <t>Data Scientist for Deep Learning</t>
+  </si>
+  <si>
+    <t>(Junior) Customer Data Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>(Senior) Data Scientist (f/m/d)</t>
   </si>
   <si>
     <t>Senior Data Scientist im Bereich Künstliche Intelligenz und Analytics Initiativen (w/m/d)</t>
   </si>
   <si>
+    <t>Data Scientist (w/d/m)</t>
+  </si>
+  <si>
+    <t>Data Scientist Natural Language Processing Public Sector (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) Prozessautomatisierung Personen-Rückversicherung (Teil-/Vollzeit)</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d)* im Controlling</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist (m/w/d) für unser Data Innovation Lab</t>
+  </si>
+  <si>
+    <t>(Senior) Business Data Scientist / Manager Decisioning (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist / Data Analyst für den Bereich IT (m/w/d)</t>
+  </si>
+  <si>
     <t>Data Scientist Advanced Analytics (m/w/d)</t>
   </si>
   <si>
+    <t>Data Scientist m|w|d</t>
+  </si>
+  <si>
+    <t>Data Scientist Europe North (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) im Bereich Arbeitsvorbereitung &amp; Logistik</t>
+  </si>
+  <si>
+    <t>Verkehrsingenieur / Data Scientist / Softwareentwickler (m/w/d) - Verkehrstechnik</t>
+  </si>
+  <si>
+    <t>Data Scientist in Machine Learning mit Fokus in ETL &amp; KI-Modeling (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist in Machine Learning with focus on ETL &amp; AI modeling (f/m/d)</t>
+  </si>
+  <si>
+    <t>Referent/Referentin (m/w/d) Data Scientist</t>
+  </si>
+  <si>
     <t>Teamleiter Data Analytics / Data Scientist (m/w/d)</t>
   </si>
   <si>
-    <t>Data Scientist / Data Analyst für den Bereich IT (m/w/d)</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist (m/w/d) für unser Data Innovation Lab</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d)* im Controlling</t>
-  </si>
-  <si>
-    <t>Data Scientist m|w|d</t>
-  </si>
-  <si>
-    <t>Referent/Referentin (m/w/d) Data Scientist</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) im Bereich Arbeitsvorbereitung &amp; Logistik</t>
-  </si>
-  <si>
-    <t>Verkehrsingenieur / Data Scientist / Softwareentwickler (m/w/d) - Verkehrstechnik</t>
-  </si>
-  <si>
-    <t>Data Scientist in Machine Learning mit Fokus in ETL &amp; KI-Modeling (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist in Machine Learning with focus on ETL &amp; AI modeling (f/m/d)</t>
-  </si>
-  <si>
-    <t>(Senior) Data Scientist (f/m/d)</t>
-  </si>
-  <si>
-    <t>Data Engineer/Data Scientist (m/f/d)</t>
+    <t>Data Analyst / Data Scientist (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) docmetric</t>
+  </si>
+  <si>
+    <t>Junior Pricing Actuary / Mathematician / Data Scientist (m/f/d) - Commercial</t>
+  </si>
+  <si>
+    <t>Research Scientist (f/m/d) Data Analytics</t>
+  </si>
+  <si>
+    <t>Research Data Scientist / Research Data Analyst (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist/Analyst (w/m/d) im Bereich prüfungsnahe Beratung/Quants - Assurance (Financial Services)</t>
   </si>
   <si>
     <t>Junior Data Scientist (m/w)</t>
   </si>
   <si>
-    <t>Data Scientist - All Levels</t>
-  </si>
-  <si>
-    <t>Data Scientist Europe North (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) Prozessautomatisierung Personen-Rückversicherung (Teil-/Vollzeit)</t>
-  </si>
-  <si>
-    <t>Data Scientist (gn*) Prozessentwicklung</t>
-  </si>
-  <si>
-    <t>Data Scientist / Data Analyst – Controlling national (m/w/d)</t>
-  </si>
-  <si>
-    <t>Junior Pricing Actuary / Mathematician / Data Scientist (m/f/d) - Retail</t>
-  </si>
-  <si>
-    <t>Big Data Analyst / Data Scientist</t>
-  </si>
-  <si>
-    <t>Data Scientist* / Softwareentwickler*</t>
-  </si>
-  <si>
-    <t>Data Scientist for Deep Learning</t>
-  </si>
-  <si>
-    <t>Data Analyst (m/w/d) - Data Scientist</t>
-  </si>
-  <si>
-    <t>Research Data Scientist / Research Data Analyst (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist/Analyst (w/m/d) im Bereich prüfungsnahe Beratung/Quants - Assurance (Financial Services)</t>
-  </si>
-  <si>
-    <t>Junior Pricing Actuary / Mathematician / Data Scientist (m/f/d) - Commercial</t>
-  </si>
-  <si>
-    <t>Data Analyst / Data Scientist (m/w/d)</t>
-  </si>
-  <si>
-    <t>(Senior) Business Data Scientist / Manager Decisioning (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) docmetric</t>
-  </si>
-  <si>
-    <t>(Junior) Customer Data Scientist (m/w/d)</t>
+    <t>Image Data Scientist (m/f/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist, Behavioural Science - Global Data (f/m/d)</t>
+  </si>
+  <si>
+    <t>Data Scientist (f/m/d)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist Courier Management (Forecasting / Shift Planning) (m/f/d)</t>
+  </si>
+  <si>
+    <t>DATA SCIENTIST (F/M/D)</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/f/d) Berlin</t>
   </si>
   <si>
     <t>Marketing Actuary / Data Scientist (m/w/d) Data Analytics</t>
   </si>
   <si>
-    <t>Data Scientist Natural Language Processing Public Sector (m/w/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist (w/d/m)</t>
-  </si>
-  <si>
-    <t>Image Data Scientist (m/f/d)</t>
-  </si>
-  <si>
-    <t>Data Scientist (f/m/d)</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist Courier Management (Forecasting / Shift Planning) (m/f/d)</t>
-  </si>
-  <si>
-    <t>DATA SCIENTIST (F/M/D)</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/f/d) Berlin</t>
+    <t>Junior Data Scientist (m / w /d) - Berlin</t>
   </si>
   <si>
     <t>Data Scientist (m/w/d) Data Analytics</t>
   </si>
   <si>
-    <t>Junior Data Scientist (m / w /d) - Berlin</t>
+    <t>Full Time Data Scientist</t>
   </si>
   <si>
     <t>Data Scientist &amp; Machine Learning Engineer (m/w/d)</t>
@@ -436,15 +454,12 @@
     <t>Data Scientist / Data Engineer (m/w/d)</t>
   </si>
   <si>
+    <t>STATWORX</t>
+  </si>
+  <si>
     <t>Campusjäger GmbH</t>
   </si>
   <si>
-    <t>STATWORX</t>
-  </si>
-  <si>
-    <t>Handelsblatt GmbH</t>
-  </si>
-  <si>
     <t>Tenera</t>
   </si>
   <si>
@@ -454,82 +469,94 @@
     <t>Liebherr-EMtec GmbH</t>
   </si>
   <si>
+    <t>Le Wagon</t>
+  </si>
+  <si>
+    <t>Cintellic GmbH</t>
+  </si>
+  <si>
     <t>Amazon Web Services (AWS)</t>
   </si>
   <si>
-    <t>Cintellic GmbH</t>
-  </si>
-  <si>
-    <t>Le Wagon</t>
+    <t>DB Zeitarbeit GmbH</t>
+  </si>
+  <si>
+    <t>Delivery Hero</t>
+  </si>
+  <si>
+    <t>DABBEL - Automation Intelligence GmbH</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Deutsche Nationalbibliothek</t>
+  </si>
+  <si>
+    <t>Digetiers GmbH</t>
   </si>
   <si>
     <t>SIGNAL IDUNA Gruppe</t>
   </si>
   <si>
+    <t>Allgeier Experts Pro GmbH</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young</t>
+  </si>
+  <si>
+    <t>​​​​Leibniz-Zentrum für Agrarlandschaftsforschung...</t>
+  </si>
+  <si>
+    <t>Falke</t>
+  </si>
+  <si>
     <t>getAbstract</t>
   </si>
   <si>
-    <t>Bayer</t>
-  </si>
-  <si>
-    <t>DB Zeitarbeit GmbH</t>
-  </si>
-  <si>
-    <t>Delivery Hero</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Young</t>
-  </si>
-  <si>
-    <t>Allgeier Experts Pro GmbH</t>
-  </si>
-  <si>
-    <t>Deutsche Nationalbibliothek</t>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Selby Jennings</t>
+  </si>
+  <si>
+    <t>Information und Technik Nordrhein-Westfalen IT.NRW</t>
+  </si>
+  <si>
+    <t>N26</t>
+  </si>
+  <si>
+    <t>Volksbank Düsseldorf Neuss eG</t>
+  </si>
+  <si>
+    <t>Lot Internet GmbH</t>
   </si>
   <si>
     <t>Smart Host GmbH</t>
   </si>
   <si>
-    <t>DABBEL - Automation Intelligence GmbH</t>
-  </si>
-  <si>
-    <t>Falke</t>
-  </si>
-  <si>
-    <t>Digetiers GmbH</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Selby Jennings</t>
-  </si>
-  <si>
-    <t>Information und Technik Nordrhein-Westfalen IT.NRW</t>
-  </si>
-  <si>
-    <t>N26</t>
-  </si>
-  <si>
-    <t>Volksbank Düsseldorf Neuss eG</t>
+    <t>DATANOMIQ GmbH</t>
+  </si>
+  <si>
+    <t>Amadeus FiRe</t>
+  </si>
+  <si>
+    <t>skytron energy GmbH</t>
+  </si>
+  <si>
+    <t>Deutsche Apotheker- und Ärztebank eG</t>
+  </si>
+  <si>
+    <t>DHL Paket</t>
   </si>
   <si>
     <t>PAYBACK GmbH</t>
   </si>
   <si>
-    <t>DHL Paket</t>
-  </si>
-  <si>
-    <t>skytron energy GmbH</t>
-  </si>
-  <si>
-    <t>DATANOMIQ GmbH</t>
-  </si>
-  <si>
-    <t>Lot Internet GmbH</t>
-  </si>
-  <si>
-    <t>Amadeus FiRe</t>
+    <t>RehaCare GmbH</t>
+  </si>
+  <si>
+    <t>OBI Group Holding SE &amp; Co. KGaA</t>
   </si>
   <si>
     <t>PwC</t>
@@ -541,94 +568,109 @@
     <t>Spectral Engines GmbH</t>
   </si>
   <si>
-    <t>RehaCare GmbH</t>
-  </si>
-  <si>
-    <t>OBI Group Holding SE &amp; Co. KGaA</t>
+    <t>1&amp;1 Mail &amp; Media</t>
   </si>
   <si>
     <t>Groz-Beckert KG</t>
   </si>
   <si>
+    <t>NEW YORKER</t>
+  </si>
+  <si>
     <t>Verkehrsverbund Rhein-Ruhr AöR</t>
   </si>
   <si>
     <t>Swiss Life Investment Management Deutschland Holding GmbH</t>
   </si>
   <si>
+    <t>Chemovator</t>
+  </si>
+  <si>
+    <t>NOWEDA eG Apothekergenossenschaft</t>
+  </si>
+  <si>
+    <t>Deutsche Telekom Services Europe SE</t>
+  </si>
+  <si>
+    <t>peekd</t>
+  </si>
+  <si>
+    <t>NOWEDA</t>
+  </si>
+  <si>
+    <t>Roche Diagnostics GmbH</t>
+  </si>
+  <si>
+    <t>IT.NRW</t>
+  </si>
+  <si>
     <t>Academic Work</t>
   </si>
   <si>
-    <t>1&amp;1 Mail &amp; Media</t>
-  </si>
-  <si>
-    <t>Chemovator</t>
-  </si>
-  <si>
-    <t>NOWEDA eG Apothekergenossenschaft</t>
-  </si>
-  <si>
-    <t>NEW YORKER</t>
-  </si>
-  <si>
-    <t>Roche Diagnostics GmbH</t>
+    <t>serviceline PERSONAL-MANAGEMENT GmbH &amp; Co.KG</t>
+  </si>
+  <si>
+    <t>Clark Germany GmbH</t>
+  </si>
+  <si>
+    <t>Claremont Consulting</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>saracus consulting GmbH</t>
   </si>
   <si>
     <t>Unilever Deutschland Holding GmbH</t>
   </si>
   <si>
-    <t>serviceline PERSONAL-MANAGEMENT GmbH &amp; Co.KG</t>
-  </si>
-  <si>
-    <t>peekd</t>
-  </si>
-  <si>
-    <t>NOWEDA</t>
-  </si>
-  <si>
-    <t>IT.NRW</t>
-  </si>
-  <si>
-    <t>Clark Germany GmbH</t>
+    <t>Mediengruppe RTL Deutschland</t>
+  </si>
+  <si>
+    <t>1 &amp; 1 IONOS</t>
+  </si>
+  <si>
+    <t>Altran Deutschland S.A.S. &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Immerlearn</t>
+  </si>
+  <si>
+    <t>TUI</t>
+  </si>
+  <si>
+    <t>Simon-Kucher &amp; Partners</t>
+  </si>
+  <si>
+    <t>Post &amp; Paket Deutschland</t>
+  </si>
+  <si>
+    <t>Machine Learning Reply</t>
+  </si>
+  <si>
+    <t>SoftwareONE</t>
+  </si>
+  <si>
+    <t>D&amp;TS GmbH</t>
   </si>
   <si>
     <t>neusta software development west GmbH</t>
   </si>
   <si>
-    <t>Claremont Consulting</t>
-  </si>
-  <si>
-    <t>Deutsche Telekom Services Europe SE</t>
-  </si>
-  <si>
-    <t>Immerlearn</t>
-  </si>
-  <si>
-    <t>TUI</t>
-  </si>
-  <si>
-    <t>Simon-Kucher &amp; Partners</t>
-  </si>
-  <si>
-    <t>Post &amp; Paket Deutschland</t>
-  </si>
-  <si>
-    <t>Machine Learning Reply</t>
-  </si>
-  <si>
-    <t>SoftwareONE</t>
-  </si>
-  <si>
-    <t>D&amp;TS GmbH</t>
-  </si>
-  <si>
     <t>Mediengruppe Pressedruck</t>
   </si>
   <si>
-    <t>1 &amp; 1 IONOS</t>
-  </si>
-  <si>
-    <t>Altran Deutschland S.A.S. &amp; Co. KG</t>
+    <t>Waschbär GmbH</t>
+  </si>
+  <si>
+    <t>Options Group</t>
+  </si>
+  <si>
+    <t>alexanderthamm</t>
+  </si>
+  <si>
+    <t>xValue GmbH</t>
   </si>
   <si>
     <t>Generali Deutschland AG</t>
@@ -637,261 +679,246 @@
     <t>Vodafone GmbH</t>
   </si>
   <si>
-    <t>Waschbär GmbH</t>
-  </si>
-  <si>
-    <t>Mediengruppe RTL Deutschland</t>
-  </si>
-  <si>
-    <t>Options Group</t>
-  </si>
-  <si>
-    <t>xValue GmbH</t>
-  </si>
-  <si>
-    <t>alexanderthamm</t>
-  </si>
-  <si>
-    <t>Roche</t>
-  </si>
-  <si>
-    <t>saracus consulting GmbH</t>
+    <t>Camelot ITLab GmbH</t>
+  </si>
+  <si>
+    <t>Positive Thinking Company GmbH</t>
+  </si>
+  <si>
+    <t>AWS EMEA SARL (Germany Branch)</t>
+  </si>
+  <si>
+    <t>Paintgun</t>
+  </si>
+  <si>
+    <t>Cyoss GmbH</t>
+  </si>
+  <si>
+    <t>ADEAL Systems GmbH</t>
+  </si>
+  <si>
+    <t>GLOBALFOUNDRIES</t>
   </si>
   <si>
     <t>Page Personnel</t>
   </si>
   <si>
+    <t>I. K. Hofmann GmbH</t>
+  </si>
+  <si>
+    <t>Alexander Thamm GmbH</t>
+  </si>
+  <si>
+    <t>DEUTZ AG</t>
+  </si>
+  <si>
+    <t>rehacare GmbH</t>
+  </si>
+  <si>
+    <t>Parallel Consulting</t>
+  </si>
+  <si>
+    <t>Bosch Group</t>
+  </si>
+  <si>
+    <t>FERCHAU</t>
+  </si>
+  <si>
     <t>CellTool GmbH</t>
   </si>
   <si>
     <t>NorCom Information Technology GmbH &amp; Co. KGaA</t>
   </si>
   <si>
-    <t>Paintgun</t>
-  </si>
-  <si>
-    <t>AWS EMEA SARL (Germany Branch)</t>
-  </si>
-  <si>
-    <t>GLOBALFOUNDRIES</t>
-  </si>
-  <si>
-    <t>Camelot ITLab GmbH</t>
+    <t>KION GROUP AG</t>
+  </si>
+  <si>
+    <t>PALTRON GmbH</t>
+  </si>
+  <si>
+    <t>MSD Sharp &amp; Dohme GmbH</t>
+  </si>
+  <si>
+    <t>Hays</t>
+  </si>
+  <si>
+    <t>medpex Versandapotheke</t>
+  </si>
+  <si>
+    <t>komoot</t>
+  </si>
+  <si>
+    <t>Franz &amp; Wach Personalservice GmbH</t>
+  </si>
+  <si>
+    <t>metabo</t>
+  </si>
+  <si>
+    <t>Publicis Germany</t>
   </si>
   <si>
     <t>CURE S.A.</t>
   </si>
   <si>
-    <t>rehacare GmbH</t>
-  </si>
-  <si>
-    <t>Alexander Thamm GmbH</t>
-  </si>
-  <si>
-    <t>Parallel Consulting</t>
-  </si>
-  <si>
-    <t>I. K. Hofmann GmbH</t>
-  </si>
-  <si>
-    <t>DEUTZ AG</t>
-  </si>
-  <si>
-    <t>ADEAL Systems GmbH</t>
-  </si>
-  <si>
-    <t>FERCHAU</t>
-  </si>
-  <si>
-    <t>PALTRON GmbH</t>
-  </si>
-  <si>
-    <t>MSD Sharp &amp; Dohme GmbH</t>
-  </si>
-  <si>
-    <t>KION GROUP AG</t>
-  </si>
-  <si>
-    <t>Cyoss GmbH</t>
-  </si>
-  <si>
-    <t>Publicis Germany</t>
-  </si>
-  <si>
-    <t>Positive Thinking Company GmbH</t>
-  </si>
-  <si>
-    <t>Bosch Group</t>
-  </si>
-  <si>
-    <t>komoot</t>
-  </si>
-  <si>
-    <t>medpex Versandapotheke</t>
-  </si>
-  <si>
     <t>SellerX</t>
   </si>
   <si>
+    <t>ALD AutoLeasing D GmbH</t>
+  </si>
+  <si>
+    <t>TUI Cruises GmbH</t>
+  </si>
+  <si>
     <t>IQVIA</t>
   </si>
   <si>
     <t>Soulside</t>
   </si>
   <si>
+    <t>Parship Group</t>
+  </si>
+  <si>
     <t>logarithmo GmbH &amp; Co. KG</t>
   </si>
   <si>
     <t>Bechtle GmbH &amp; Co. KG, Bonn</t>
   </si>
   <si>
-    <t>metabo</t>
-  </si>
-  <si>
     <t>Simplaex GmbH</t>
   </si>
   <si>
-    <t>ONE LOGIC</t>
+    <t>Project A Ventures</t>
+  </si>
+  <si>
+    <t>Pandata</t>
+  </si>
+  <si>
+    <t>umlaut</t>
+  </si>
+  <si>
+    <t>AstraZeneca</t>
+  </si>
+  <si>
+    <t>Rhenus SN digital GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>ERGO Group AG</t>
+  </si>
+  <si>
+    <t>SICK AG</t>
+  </si>
+  <si>
+    <t>Siltronic AG</t>
+  </si>
+  <si>
+    <t>Ratbacher GmbH</t>
   </si>
   <si>
     <t>KPMG AG Wirtschaftsprüfungsgesellschaft</t>
   </si>
   <si>
-    <t>Parship Group</t>
-  </si>
-  <si>
-    <t>TUI Cruises GmbH</t>
-  </si>
-  <si>
-    <t>ALD AutoLeasing D GmbH</t>
+    <t>Bosch Gruppe</t>
+  </si>
+  <si>
+    <t>msg systems ag</t>
+  </si>
+  <si>
+    <t>Deutsche Bundesbank</t>
+  </si>
+  <si>
+    <t>Risk.Ident GmbH</t>
   </si>
   <si>
     <t>TÜV SÜD</t>
   </si>
   <si>
+    <t>Tomra Sorting GmbH</t>
+  </si>
+  <si>
+    <t>Sopra Steria</t>
+  </si>
+  <si>
+    <t>Hannover Rück SE</t>
+  </si>
+  <si>
+    <t>Alte Leipziger Versicherung AG</t>
+  </si>
+  <si>
+    <t>AXA Konzern AG</t>
+  </si>
+  <si>
+    <t>1&amp;1</t>
+  </si>
+  <si>
+    <t>Helaba Invest Kapitalanlagegesellschaft mbH</t>
+  </si>
+  <si>
     <t>Lidl Stiftung &amp; Co. KG</t>
   </si>
   <si>
     <t>Verivox GmbH</t>
   </si>
   <si>
+    <t>Gehalt.de GmbH</t>
+  </si>
+  <si>
+    <t>Miele &amp; Cie. KG</t>
+  </si>
+  <si>
+    <t>Michelin Reifenwerke AG &amp; Co. KGaA</t>
+  </si>
+  <si>
+    <t>Stadtwerke München GmbH</t>
+  </si>
+  <si>
+    <t>1&amp;1 Versatel GmbH</t>
+  </si>
+  <si>
+    <t>TTS Europe GmbH</t>
+  </si>
+  <si>
+    <t>Kienbaum Consultants International GmbH</t>
+  </si>
+  <si>
+    <t>IONOS</t>
+  </si>
+  <si>
+    <t>BG BAU - Berufsgenossenschaft der Bauwirtschaft</t>
+  </si>
+  <si>
     <t>Lidl Dienstleistung GmbH &amp; Co. KG</t>
   </si>
   <si>
-    <t>Helaba Invest Kapitalanlagegesellschaft mbH</t>
-  </si>
-  <si>
-    <t>AXA Konzern AG</t>
-  </si>
-  <si>
-    <t>Gehalt.de GmbH</t>
-  </si>
-  <si>
-    <t>Alte Leipziger Versicherung AG</t>
-  </si>
-  <si>
-    <t>1&amp;1</t>
-  </si>
-  <si>
-    <t>Miele &amp; Cie. KG</t>
-  </si>
-  <si>
-    <t>BG BAU - Berufsgenossenschaft der Bauwirtschaft</t>
-  </si>
-  <si>
-    <t>Stadtwerke München GmbH</t>
-  </si>
-  <si>
-    <t>1&amp;1 Versatel GmbH</t>
-  </si>
-  <si>
-    <t>TTS Europe GmbH</t>
-  </si>
-  <si>
-    <t>Kienbaum Consultants International GmbH</t>
-  </si>
-  <si>
-    <t>IONOS</t>
-  </si>
-  <si>
-    <t>Risk.Ident GmbH</t>
-  </si>
-  <si>
-    <t>Project A Ventures</t>
+    <t>Stuttgarter Zeitung Werbevermarktung GmbH</t>
+  </si>
+  <si>
+    <t>CompuGroup Medical SE &amp; Co. KGaA</t>
+  </si>
+  <si>
+    <t>Berylls Digital Ventures GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>rpc - The Retail Performance Company</t>
+  </si>
+  <si>
+    <t>Philips GmbH</t>
+  </si>
+  <si>
+    <t>Gesellschaft für Anlagen- und Reaktorsicherheit (GRS) gGmbH</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young GmbH Wirtschaftsprüfungsgesellschaft</t>
+  </si>
+  <si>
+    <t>Interhyp Gruppe</t>
+  </si>
+  <si>
+    <t>TOOLPORT GmbH</t>
   </si>
   <si>
     <t>EISIG Health GmbH</t>
   </si>
   <si>
-    <t>Pandata</t>
-  </si>
-  <si>
-    <t>Michelin Reifenwerke AG &amp; Co. KGaA</t>
-  </si>
-  <si>
-    <t>Hannover Rück SE</t>
-  </si>
-  <si>
-    <t>Siltronic AG</t>
-  </si>
-  <si>
-    <t>Rhenus SN digital GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>ERGO Group AG</t>
-  </si>
-  <si>
-    <t>umlaut</t>
-  </si>
-  <si>
-    <t>SICK AG</t>
-  </si>
-  <si>
-    <t>Bosch Gruppe</t>
-  </si>
-  <si>
-    <t>Ratbacher GmbH</t>
-  </si>
-  <si>
-    <t>Interhyp Gruppe</t>
-  </si>
-  <si>
-    <t>Gesellschaft für Anlagen- und Reaktorsicherheit (GRS) gGmbH</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Young GmbH Wirtschaftsprüfungsgesellschaft</t>
-  </si>
-  <si>
-    <t>Berylls Digital Ventures GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>rpc - The Retail Performance Company</t>
-  </si>
-  <si>
-    <t>TOOLPORT GmbH</t>
-  </si>
-  <si>
-    <t>Stuttgarter Zeitung Werbevermarktung GmbH</t>
-  </si>
-  <si>
-    <t>CompuGroup Medical SE &amp; Co. KGaA</t>
-  </si>
-  <si>
-    <t>msg systems ag</t>
-  </si>
-  <si>
-    <t>AstraZeneca</t>
-  </si>
-  <si>
-    <t>Deutsche Bundesbank</t>
-  </si>
-  <si>
-    <t>Sopra Steria</t>
-  </si>
-  <si>
-    <t>Tomra Sorting GmbH</t>
-  </si>
-  <si>
     <t>Definiens</t>
   </si>
   <si>
@@ -910,6 +937,9 @@
     <t>Yagora GmbH</t>
   </si>
   <si>
+    <t>Exaloan AG</t>
+  </si>
+  <si>
     <t>Synfioo GmbH</t>
   </si>
   <si>
@@ -928,28 +958,31 @@
     <t>Frankfurt am Main</t>
   </si>
   <si>
+    <t>Berlin, Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Kirchdorf an der Iller</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
     <t>Düsseldorf</t>
   </si>
   <si>
-    <t>Berlin, Berlin, Germany</t>
-  </si>
-  <si>
-    <t>Kirchdorf an der Iller</t>
-  </si>
-  <si>
-    <t>Berlin, Germany</t>
+    <t>Wuppertal</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
   </si>
   <si>
     <t>Hamburg</t>
   </si>
   <si>
-    <t>Wuppertal</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
+    <t>Müncheberg</t>
   </si>
   <si>
     <t>Düsseldorf, Rhein-Kreis Neuss und Ratingen</t>
@@ -958,10 +991,16 @@
     <t>Leipzig</t>
   </si>
   <si>
+    <t>Bonn</t>
+  </si>
+  <si>
     <t>München</t>
   </si>
   <si>
-    <t>Bonn</t>
+    <t>München, Magdeburg, bundesweit</t>
+  </si>
+  <si>
+    <t>Köln, Schanzenstraße 39</t>
   </si>
   <si>
     <t>Deutschland</t>
@@ -970,37 +1009,34 @@
     <t>Steinbach (Taunus)</t>
   </si>
   <si>
-    <t>München, Magdeburg, bundesweit</t>
-  </si>
-  <si>
-    <t>Köln, Schanzenstraße 39</t>
+    <t>Karlsruhe</t>
   </si>
   <si>
     <t>Albstadt</t>
   </si>
   <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
     <t>Gelsenkirchen</t>
   </si>
   <si>
     <t>Garching bei München</t>
   </si>
   <si>
-    <t>Karlsruhe</t>
-  </si>
-  <si>
     <t>Mannheim</t>
   </si>
   <si>
     <t>Essen</t>
   </si>
   <si>
+    <t>Köln</t>
+  </si>
+  <si>
     <t>Frankfurt a. M., München</t>
   </si>
   <si>
-    <t>Braunschweig</t>
-  </si>
-  <si>
-    <t>Köln</t>
+    <t>Münster, Baden-Dättwil</t>
   </si>
   <si>
     <t>Schwelm</t>
@@ -1009,87 +1045,99 @@
     <t>Augsburg</t>
   </si>
   <si>
+    <t>Freiburg im Breisgau</t>
+  </si>
+  <si>
+    <t>Ratingen</t>
+  </si>
+  <si>
     <t>Saarbrücken</t>
   </si>
   <si>
     <t>Unterföhring</t>
   </si>
   <si>
-    <t>Freiburg im Breisgau</t>
-  </si>
-  <si>
-    <t>Ratingen</t>
-  </si>
-  <si>
-    <t>Münster, Baden-Dättwil</t>
+    <t>Hamburg oder Dortmund</t>
+  </si>
+  <si>
+    <t>Neu Isenburg</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Leonberg</t>
+  </si>
+  <si>
+    <t>Bamberg</t>
   </si>
   <si>
     <t>Tutzing</t>
   </si>
   <si>
-    <t>Dresden</t>
+    <t>Wangen im Allgäu</t>
+  </si>
+  <si>
+    <t>Haar</t>
+  </si>
+  <si>
+    <t>Penzberg</t>
+  </si>
+  <si>
+    <t>Mannheim, Deutschland</t>
+  </si>
+  <si>
+    <t>Nürtingen</t>
   </si>
   <si>
     <t>Grevenmacher</t>
   </si>
   <si>
-    <t>Neu Isenburg</t>
-  </si>
-  <si>
-    <t>Bamberg</t>
-  </si>
-  <si>
-    <t>Haar</t>
-  </si>
-  <si>
-    <t>Wangen im Allgäu</t>
-  </si>
-  <si>
-    <t>Hamburg oder Dortmund</t>
-  </si>
-  <si>
-    <t>Leonberg</t>
-  </si>
-  <si>
-    <t>Mannheim, Deutschland</t>
-  </si>
-  <si>
     <t>Dortmund</t>
   </si>
   <si>
-    <t>Nürtingen</t>
+    <t>Aachen</t>
+  </si>
+  <si>
+    <t>Burghausen, Freiberg</t>
+  </si>
+  <si>
+    <t>Berlin, Augsburg, Bielefeld, Bremen, Dortmund, Dresden, Düsseldorf, Essen, Frankfurt a.M., Freiburg</t>
+  </si>
+  <si>
+    <t>Renningen</t>
+  </si>
+  <si>
+    <t>Köln, Berlin, Braunschweig, Bretten, Chemnitz, Düsseldorf, Essen, Frankfurt/M., Görlitz, Hamburg</t>
+  </si>
+  <si>
+    <t>Mülheim-Kärlich</t>
+  </si>
+  <si>
+    <t>bundesweit, Berlin, Frankfurt, Hamburg, Köln, Leipzig, München</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Oberursel (Taunus)</t>
+  </si>
+  <si>
+    <t>Frankfurt (Main)</t>
+  </si>
+  <si>
+    <t>Neckarsulm</t>
+  </si>
+  <si>
+    <t>Gütersloh</t>
   </si>
   <si>
     <t>Hamburg, Hannover, Karlsruhe, Köln, Mainz, Mannheim, München, Stuttgart, Nürnberg, Saarbrücken, Ulm</t>
   </si>
   <si>
-    <t>Neckarsulm</t>
-  </si>
-  <si>
     <t>Bad Wimpfen</t>
   </si>
   <si>
-    <t>Frankfurt (Main)</t>
-  </si>
-  <si>
-    <t>Oberursel (Taunus)</t>
-  </si>
-  <si>
-    <t>Gütersloh</t>
-  </si>
-  <si>
-    <t>Hannover</t>
-  </si>
-  <si>
-    <t>Burghausen, Freiberg</t>
-  </si>
-  <si>
-    <t>Aachen</t>
-  </si>
-  <si>
-    <t>Renningen</t>
-  </si>
-  <si>
     <t>Garching</t>
   </si>
   <si>
@@ -1099,18 +1147,6 @@
     <t>Norderstedt bei Hamburg</t>
   </si>
   <si>
-    <t>Berlin, Augsburg, Bielefeld, Bremen, Dortmund, Dresden, Düsseldorf, Essen, Frankfurt a.M., Freiburg</t>
-  </si>
-  <si>
-    <t>Köln, Berlin, Braunschweig, Bretten, Chemnitz, Düsseldorf, Essen, Frankfurt/M., Görlitz, Hamburg</t>
-  </si>
-  <si>
-    <t>bundesweit, Berlin, Frankfurt, Hamburg, Köln, Leipzig, München</t>
-  </si>
-  <si>
-    <t>Mülheim-Kärlich</t>
-  </si>
-  <si>
     <t>München, Germany</t>
   </si>
   <si>
@@ -1126,91 +1162,100 @@
     <t>Essen, Deutschland</t>
   </si>
   <si>
+    <t>Wangen im Allgäu, Deutschland</t>
+  </si>
+  <si>
     <t>Aachen, Deutschland</t>
   </si>
   <si>
-    <t>Wangen im Allgäu, Deutschland</t>
-  </si>
-  <si>
     <t>Munich, Germany</t>
   </si>
   <si>
     <t>Frankfurt am Main, Deutschland</t>
   </si>
   <si>
+    <t>Über STATWORXSTATWORX ist ein Beratungsunternehmen für Data Science, Machine Learning und AI mit Sitz in Frankfurt am Main und Zürich.</t>
+  </si>
+  <si>
     <t>Demonstrable experience of problem solving with complex data structures.Liaising with staff to develop internal softwares for unique data management…</t>
   </si>
   <si>
-    <t>Über STATWORXSTATWORX ist ein Beratungsunternehmen für Data Science, Machine Learning und AI mit Sitz in Frankfurt am Main und Zürich.</t>
-  </si>
-  <si>
-    <t>Die Handelsblatt GmbH ist Marktführer im Segment der Wirtschafts- und Finanzpresse.Objekte wie Handelsblatt und WirtschaftsWoche stehen beispielhaft für das…</t>
-  </si>
-  <si>
     <t>Liebherr-EMtec GmbH * Kirchdorf an der Iller * Feste Anstellung * Vollzeit - Die Liebherr-EMtec GmbH ist eine von elf Spartenobergesellschaften der Firmengruppe Liebherr mit Hauptsitz in Kirchdorf an der Iller in Deutschland. Sie ist zuständig für die Gesellschaften der Sparte Erdbewegung. Diese entwickeln und produzieren an insgesamt sieben Standorten in Europa, Asien und Südamerika ein umfangreiches Produktprogramm. Ihre Aufgaben * Entwickeln von Algorithmen und Prototypen im Bereich der Verarbeitung der IoT Daten der Maschinen * Einbinden von Daten-, Automatisierungs-, Analytics- und KI-Lösungen in die Infrastruktur * Auswerten der IoT-Daten der Maschinen auf Anfrage aus den Gesellschaften und präsentieren der Ergebnisse in Excel, PowerBI * Aufbauen von Standardreports in PowerBI * Spartenübergreifendes Anforderungsmanagement für alle EMT-Werke</t>
   </si>
   <si>
+    <t>Als 100%ige Tochter ist die DB Zeitarbeit Dein Sprungbrett zur Deutschen Bahn.Profitiere von einem tariflich garantierten Gehaltspaket, Überstundenvergütung…</t>
+  </si>
+  <si>
+    <t>Specify your data needs, so our data engineers enrich the central data solutions.Own data projects from collection to operationalization.Want to be a hero?</t>
+  </si>
+  <si>
+    <t>Collaborate with data scientists, data engineers, product managers and business stakeholders to build well-crafted, pragmatic data products.Want to be a hero?</t>
+  </si>
+  <si>
+    <t>All others must bring data.Filter out noise in building data and find the underlying signals and correlations.Completely autonomous and AI based.</t>
+  </si>
+  <si>
+    <t>Provide computational and statistical support for data analysis and experimental design.Experience with data mining, modeling, transformation and…</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d).Wir suchen für den Fachbereich Informationsinfrastruktur am Standort Frankfurt am Main zum nächstmöglichen Zeitpunkt einen Data…</t>
+  </si>
+  <si>
+    <t>Ein gradient-boosted decision-tree ML model baust du auch auf, wenn man dich nachts aus dem Tiefschlaf holt?Bei Genetik denkst du nicht an Biologie sondern an…</t>
+  </si>
+  <si>
     <t>Wir suchen für unseren Standort Hamburg ab sofort einen Mathematiker/Aktuar und Data Scientist (m/w/d) * Offenheit/Wunsch zur DAV-Ausbildung zum "Aktuar" und "Certified Actuarial Data Scientist" * Mitarbeit im Data Analytics Team der Krankenversicherung und bedarfsgerechte Servicierung der spartenspezifischen Delivery Units * MSc oder Promotion in quantitativ / technisch orientierter Fachrichtung (z.B. Mathematik, Informatik, Data Science, Physik, Ingenieurwesen)</t>
   </si>
   <si>
-    <t>Provide computational and statistical support for data analysis and experimental design.Experience with data mining, modeling, transformation and…</t>
-  </si>
-  <si>
-    <t>Als 100%ige Tochter ist die DB Zeitarbeit Dein Sprungbrett zur Deutschen Bahn.Profitiere von einem tariflich garantierten Gehaltspaket, Überstundenvergütung…</t>
-  </si>
-  <si>
-    <t>Specify your data needs, so our data engineers enrich the central data solutions.Own data projects from collection to operationalization.Want to be a hero?</t>
+    <t>Mit uns, der Allgeier Experts, sind Sie bei der Jobsuche unabhängig!Unabhängig von Vertragsart, Branche und klassischem Bewerbungsverfahren.</t>
   </si>
   <si>
     <t>Gemeinsam zukunftsweisende Lösungen für die Wirtschaftswelt von morgen entwickeln: Das ist das Ziel unserer international auf die Finanzwelt spezialisierten…</t>
   </si>
   <si>
-    <t>Mit uns, der Allgeier Experts, sind Sie bei der Jobsuche unabhängig!Unabhängig von Vertragsart, Branche und klassischem Bewerbungsverfahren.</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d).Wir suchen für den Fachbereich Informationsinfrastruktur am Standort Frankfurt am Main zum nächstmöglichen Zeitpunkt einen Data…</t>
+    <t>Invites applications with a clear focus on using big data from automatic and semi-automatic data sources (e.g.,.In the Berlin-Brandenburg region.</t>
+  </si>
+  <si>
+    <t>FALKE ist ein international ausgerichtetes, führendes Markenunternehmen für hochwertige Beinbekleidung und modische Accessoires.E-COMMERCE (M/W/D).</t>
+  </si>
+  <si>
+    <t>Wir suchen zum nächstmöglichen Zeitpunkt einen Data Scientist KI-Labor (m/w/d) * Kombination von ML Frameworks mit bestehenden Tools und Nutzung von Daten inkl. der Datenbearbeitung im Sinne von Big Data</t>
+  </si>
+  <si>
+    <t>Wachsen Sie mit uns und unterstützen Sie uns als Vertriebscontroller/Data Scientist (m/w/n) * Sie gestalten Data-Mining Prozesse und erarbeiten Use-Cases * Sie sind verantwortlich für das Datenmanagement und für den Aufbau eines Datawarehouses</t>
+  </si>
+  <si>
+    <t>Für unseren Kunden, ein Digitalisierungs-Dienstleister und Experten auf dem Gebiet Data und AI, suchen wir zum nächstmöglichen Zeitpunkt einen Data Scientist (m/w/d) der künftige das Leipziger Team erweitert. * Mitarbeit in und/oder Leitung von interdisziplinären Data Science Projekten * Erste bis mehrjährige Berufserfahrung im Umfeld von Business Analytics und Data Science * Vielfältige Weiterbildungsmöglichkeiten innerhalb der firmeneigenen "DataAcademy"</t>
+  </si>
+  <si>
+    <t>Data Scientist / Business Analyst (m/w/d) *.Lust „Big Data“ mit Leben zu füllen?Den Umgang mit großen Datenmengen zu revolutionieren?</t>
   </si>
   <si>
     <t>We collect, clean and enrich guest data from both internal and external data sources.Analyze our customer’s data.Passion for travel, tourism and data.</t>
   </si>
   <si>
-    <t>All others must bring data.Filter out noise in building data and find the underlying signals and correlations.Completely autonomous and AI based.</t>
-  </si>
-  <si>
-    <t>FALKE ist ein international ausgerichtetes, führendes Markenunternehmen für hochwertige Beinbekleidung und modische Accessoires.E-COMMERCE (M/W/D).</t>
-  </si>
-  <si>
-    <t>Collaborate with data scientists, data engineers, product managers and business stakeholders to build well-crafted, pragmatic data products.Want to be a hero?</t>
-  </si>
-  <si>
-    <t>Ein gradient-boosted decision-tree ML model baust du auch auf, wenn man dich nachts aus dem Tiefschlaf holt?Bei Genetik denkst du nicht an Biologie sondern an…</t>
-  </si>
-  <si>
-    <t>Wir suchen zum nächstmöglichen Zeitpunkt einen Data Scientist KI-Labor (m/w/d) * Kombination von ML Frameworks mit bestehenden Tools und Nutzung von Daten inkl. der Datenbearbeitung im Sinne von Big Data</t>
-  </si>
-  <si>
-    <t>Wachsen Sie mit uns und unterstützen Sie uns als Vertriebscontroller/Data Scientist (m/w/n) * Sie gestalten Data-Mining Prozesse und erarbeiten Use-Cases * Sie sind verantwortlich für das Datenmanagement und für den Aufbau eines Datawarehouses</t>
-  </si>
-  <si>
-    <t>Für unseren Kunden, ein Digitalisierungs-Dienstleister und Experten auf dem Gebiet Data und AI, suchen wir zum nächstmöglichen Zeitpunkt einen Data Scientist (m/w/d) der künftige das Leipziger Team erweitert. * Mitarbeit in und/oder Leitung von interdisziplinären Data Science Projekten * Erste bis mehrjährige Berufserfahrung im Umfeld von Business Analytics und Data Science * Vielfältige Weiterbildungsmöglichkeiten innerhalb der firmeneigenen "DataAcademy"</t>
+    <t>DATANOMIQ ist der erste deutsche Anbieter für Beratung und Dienstleistungen, der Data Analytics ganzheitlich versteht und anbietet.</t>
+  </si>
+  <si>
+    <t>Business Intelligence / Data Scientist (m/w/d).Wirtschaftliche Stabilität auch in Krisenzeiten!Wir suchen für unseren namhaften Kunden mit Sitz im Herzen…</t>
+  </si>
+  <si>
+    <t>We have an application that takes IoT data from large scale Solar power deployments, the software filters and error corrects all this data and stores it in a common format for the customers to access * Integration of 3rd party data into our cloud * Design and development of data analytics platform for statistical analysis and ML engines</t>
+  </si>
+  <si>
+    <t>Sie gestalten gemeinsam mit 4 Kollegen:innen den Aufbau einer dynamischen Data Analytics Einheit in der apoBank. Dabei haben Sie Spaß an komplexen Fragestellungen, programmieren gerne und brennen für Themen wie Big Data und Machine Learning.</t>
+  </si>
+  <si>
+    <t>Sie möchten Geschäfte weiterentwickeln und haben eine Leidenschaft für Pricingmodelle und Data Science? In dieser vielseitigen und spannenden Position im DHL Paket Data Science Team sind Sie in enger Zusammenarbeit mit unseren Kollegen aus Pricing und Produktmanagement für die (Weiter-) Entwicklung von analytischen Pricing-Modellen im Paketbereich verantwortlich. Zusammen mit fachlichen Ansprechpartnern sowie der IT identifizieren Sie hier datengetriebene Optimierungspotentiale, nutzen statistisch-analytische Modellierung sowie Data-Mining- und Deep-Learning-Methoden, um diese Optimierungspotentiale zu heben, und konzipieren darauf aufbauend Algorithmen für den standardisierten Produktivbetrieb. Je nach Use Case evaluieren Sie verschiedene statistische Verfahren sowie Data-Mining-Modelle, wählen das g</t>
   </si>
   <si>
     <t xml:space="preserve">PAYBACK is a top player in data-driven marketing worldwide. With the ability to develop digital business models and implement technical trends, we are one the leading companies in the data economy. * You develop and build Data Product at PAYBACK together with internal stakeholders * You work along the entire model life cycle guiding Data Products from conception to production * You use efficiently the available Big Data Infrastructure * Work experience in Data Science or Machine Learning * Relevant knowledge in Data Science, Statistics, Machine Learning and Deep Learning methods * Practical experience in working with data analysis tools (e.q. Python, R, Scala, TensorFlow, PyTorch) as well as with Big Data Tools (e.q. </t>
   </si>
   <si>
-    <t>Sie möchten Geschäfte weiterentwickeln und haben eine Leidenschaft für Pricingmodelle und Data Science? In dieser vielseitigen und spannenden Position im DHL Paket Data Science Team sind Sie in enger Zusammenarbeit mit unseren Kollegen aus Pricing und Produktmanagement für die (Weiter-) Entwicklung von analytischen Pricing-Modellen im Paketbereich verantwortlich. Zusammen mit fachlichen Ansprechpartnern sowie der IT identifizieren Sie hier datengetriebene Optimierungspotentiale, nutzen statistisch-analytische Modellierung sowie Data-Mining- und Deep-Learning-Methoden, um diese Optimierungspotentiale zu heben, und konzipieren darauf aufbauend Algorithmen für den standardisierten Produktivbetrieb. Je nach Use Case evaluieren Sie verschiedene statistische Verfahren sowie Data-Mining-Modelle, wählen das g</t>
-  </si>
-  <si>
-    <t>We have an application that takes IoT data from large scale Solar power deployments, the software filters and error corrects all this data and stores it in a common format for the customers to access * Integration of 3rd party data into our cloud * Design and development of data analytics platform for statistical analysis and ML engines</t>
-  </si>
-  <si>
-    <t>DATANOMIQ ist der erste deutsche Anbieter für Beratung und Dienstleistungen, der Data Analytics ganzheitlich versteht und anbietet.</t>
-  </si>
-  <si>
-    <t>Data Scientist / Business Analyst (m/w/d) *.Lust „Big Data“ mit Leben zu füllen?Den Umgang mit großen Datenmengen zu revolutionieren?</t>
-  </si>
-  <si>
-    <t>Business Intelligence / Data Scientist (m/w/d).Wirtschaftliche Stabilität auch in Krisenzeiten!Wir suchen für unseren namhaften Kunden mit Sitz im Herzen…</t>
+    <t>Bundesweit, idealerweise für unser Büro München oder Magdeburg suchen wir Sie als Entwickler Business Intelligence (m/w/d) - Data Scientist * Abgeschlossenes Studium in z.B. Informatik, Statistik, Mathematik, Physik oder Data Science oder eine gleichwertige Qualifikation * Idealerweise Berufserfahrung im Bereich Data Science/ Machine Learning/ Künstliche Intelligenz</t>
+  </si>
+  <si>
+    <t>Du bringst vorzugsweise relevante Berufserfahrung als Data Scientist oder in einem vergleichbaren Bereich mit. Sei es in der Zusammenarbeit mit Universitäten und Start-Ups, beim Besuch der EARL-Konferenz in London, oder beim Meetup mit anderen Data Scientists – wir unterstützen deine Initiativen. * Du hast einen sehr guten Studienabschluss im Bereich Data Science, Mathematik / Statistik, Informatik oder eine vergleichbare Qualifikation mit starkem Fokus auf Datenmodellierung.</t>
   </si>
   <si>
     <t>Wir sind ein internationales Netzwerk aus 284.000 Mitarbeiterinnen und Mitarbeitern, die ihr Wissen, ihre Erfahrungen und ihre Ideen miteinander teilen.</t>
@@ -1222,97 +1267,118 @@
     <t>Der Senior Data Scientist ist für die Entwicklung von KI- und Machine-Learning basierten Modellen in Python und deren Einsatz in der Cloud-Umgebung verantwortlich. * Der Senior Data Scientist ist verantwortlich für die Software-Architektur in kundenspezifischen Containern und die Verwaltung der darin enthaltenen Modelle. * Der Senior Data Scientist ist Teil des Analytik-Teams und wird die Schnittstelle zu Vertrieb und Kunden für detaillierte technische Diskussionen über die Modellierung von spektroskopischen Daten bilden. * Starke Erfahrung mit modernen Data Science Toolboxen in Python (sklear, tensorflow)</t>
   </si>
   <si>
-    <t>Bundesweit, idealerweise für unser Büro München oder Magdeburg suchen wir Sie als Entwickler Business Intelligence (m/w/d) - Data Scientist * Abgeschlossenes Studium in z.B. Informatik, Statistik, Mathematik, Physik oder Data Science oder eine gleichwertige Qualifikation * Idealerweise Berufserfahrung im Bereich Data Science/ Machine Learning/ Künstliche Intelligenz</t>
-  </si>
-  <si>
-    <t>Du bringst vorzugsweise relevante Berufserfahrung als Data Scientist oder in einem vergleichbaren Bereich mit. Sei es in der Zusammenarbeit mit Universitäten und Start-Ups, beim Besuch der EARL-Konferenz in London, oder beim Meetup mit anderen Data Scientists – wir unterstützen deine Initiativen. * Du hast einen sehr guten Studienabschluss im Bereich Data Science, Mathematik / Statistik, Informatik oder eine vergleichbare Qualifikation mit starkem Fokus auf Datenmodellierung.</t>
+    <t>Mit 35 Millionen Kund*innen gehören WEB.DE und GMX in Deutschland zu den führenden haben eine Passion für Data Science und Machine Learning und wollen in einer Digital Company mit agilem Umfeld und flachen Hierarchien wirklich etwas bewegen? Bei uns wartet mehr als ein Job auf Sie: Die Möglichkeit, mit Ihrem Können und Ihren Ideen Data-Sciene und Machine Learning Themen voranzubringen, mitzugestalten und sich individuell weiterzuentwickeln. Werden Sie Teil unseres agilen Data Science Competence Center im Bereich Big Data und entwickeln Sie aus den eingehenden konzerneigenen Daten basierend auf Machine Learning-Algorithmen neue Services und Produkte. * Sie treiben unsere explorative Datennalysen im Big Data Umfeld für die Generierung von Business Insights und Handlungsempfehlungen vora</t>
   </si>
   <si>
     <t>Erfolgreich abgeschlossenes Studium einer technischen oder quantitativen Fachrichtung, wie Informatik, Mathematik, Data Science, Machine Learning, technische Kybernetik oder vergleichbare Ausbildung/Fachrichtung * Sehr gute Kenntnisse in Advanced-Analytics-Methoden (wie Data Mining, Predictive Analytics, Machine Learning) sowie in Statistik</t>
   </si>
   <si>
+    <t>At least one year of experience working as a Data Scientist The Data Science department uses state-of-the-art machine learning and optimization techniques to continuously improve business processes at NEW YORKER. * Execution of explorative analyses of structured and unstructured data sets as well as feature engineering * Definition and development of new data science use cases * Interest in working both on the research and engineering aspects of data science * Lifelong learner who stays up to date in the fast-moving field of data science * Working in a joint data science and data engineering team * Realization of data solutions impacting 1100 stores in 45 countries</t>
+  </si>
+  <si>
     <t>Werden Sie innerhalb unserer Abteilung "Innovation/Information" Teil unseres Teams in Gelsenkirchen als Data Scientist/Data Analyst (m/w/d) für Hintergrundsysteme und Datenmanagement</t>
   </si>
   <si>
     <t>Swiss Life Asset Managers sucht für die Swiss Life Investment Management Deutschland Holding GmbH eine/n Quantitativen Riskcontroller / Data Scientist (w/m/d) * Mind. zwei bis vier Jahre Berufserfahrung im quantitativen Risikomanagement/Controlling, Data Analytics/ Fin. * Erfahrungen mit MS Azure (insbesondere VNET, Data Factory, etc.) sowie Infrastructure as code (z.B. Terraform) von Vorteil * Idealerweise erste Erfahrungen im Big Data Umfeld und in der Verwaltung großer Datenmengen (Datenbanken/ DWH)</t>
   </si>
   <si>
+    <t>You will soon be completing a degree (Bachelors or Masters or PhD) in Mathematics, Statistics, Economics, Econometrics, Data Science, Computer Science or other or related fields and have achieved above-average results in your study program * You have gained at least 1 year of experience in data analytics, data preprocessing, machine learning, artificial intelligence or related topics in an industry or an academic context</t>
+  </si>
+  <si>
+    <t>Im Rahmen von Predictive Analytics analysieren Sie Big Data, um unseren Fachbereichen und dem Management valide Entscheidungsgrundlagen zur Optimierung von Prozessen bereitzustellen. * Sie begleiten den gesamten Data-Mining-Prozess von der Erarbeitung der fachlichen Fragestellung bis hin zur Produktivstellung und Betreuung des operativen Daten-Workflows. * Sie sind der kompetente Ansprechpartner für das Thema Data-Science und tauschen sich mit unterschiedlichen Fachbereichen zu komplexen Themen aus. * Sie unterstützen den weiteren Aufbau und die Weiterentwicklung des Teams und gestalten zukünftige Fragestellungen rund um die Themen Analytics und Big Data mit. * Idealerweise bringen Sie Berufserfahrung in der Analyse, Konzeption und Implementierung von Data Science Prozessen mit oder h</t>
+  </si>
+  <si>
+    <t>Sie übernehmen Assessment, Konzeption und Einführung von Use Cases im Big Data Projekt Process Mining &amp; Analytics.Deutsche Telekom Services Europe SE.</t>
+  </si>
+  <si>
+    <t>You help develop Proof of Value / MVPs, perform ad hoc data requests, explore new data sources and build new data feeds.What we are looking for.</t>
+  </si>
+  <si>
+    <t>Für unsere Hauptverwaltung in Essen.Sie begeistern sich für den Trend Data Science?Dann hat die NOWEDA-Gruppe einiges für Sie zu bieten!</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist Advanced Manufacturing Data Analytics als Projektleiter (m/w/d).Der Hauptabteilung „Materials Management &amp; IT“ gehört zum…</t>
+  </si>
+  <si>
+    <t>IT.NRW wird künstliche Intelligenz (KI) und maschinelles Lernen (ML) als eine wichtige Säule der technologischen Weiterentwicklung nutzen und damit die…</t>
+  </si>
+  <si>
     <t>Mit deiner Ambition baust du die Sparte Data Science auf und etablierst diese als neue Beratungsdienstleistung.Home-Office Ausstattung, falls erwünscht.</t>
   </si>
   <si>
-    <t>Mit 35 Millionen Kund*innen gehören WEB.DE und GMX in Deutschland zu den führenden haben eine Passion für Data Science und Machine Learning und wollen in einer Digital Company mit agilem Umfeld und flachen Hierarchien wirklich etwas bewegen? Bei uns wartet mehr als ein Job auf Sie: Die Möglichkeit, mit Ihrem Können und Ihren Ideen Data-Sciene und Machine Learning Themen voranzubringen, mitzugestalten und sich individuell weiterzuentwickeln. Werden Sie Teil unseres agilen Data Science Competence Center im Bereich Big Data und entwickeln Sie aus den eingehenden konzerneigenen Daten basierend auf Machine Learning-Algorithmen neue Services und Produkte. * Sie treiben unsere explorative Datennalysen im Big Data Umfeld für die Generierung von Business Insights und Handlungsempfehlungen vora</t>
-  </si>
-  <si>
-    <t>You will soon be completing a degree (Bachelors or Masters or PhD) in Mathematics, Statistics, Economics, Econometrics, Data Science, Computer Science or other or related fields and have achieved above-average results in your study program * You have gained at least 1 year of experience in data analytics, data preprocessing, machine learning, artificial intelligence or related topics in an industry or an academic context</t>
-  </si>
-  <si>
-    <t>Im Rahmen von Predictive Analytics analysieren Sie Big Data, um unseren Fachbereichen und dem Management valide Entscheidungsgrundlagen zur Optimierung von Prozessen bereitzustellen. * Sie begleiten den gesamten Data-Mining-Prozess von der Erarbeitung der fachlichen Fragestellung bis hin zur Produktivstellung und Betreuung des operativen Daten-Workflows. * Sie sind der kompetente Ansprechpartner für das Thema Data-Science und tauschen sich mit unterschiedlichen Fachbereichen zu komplexen Themen aus. * Sie unterstützen den weiteren Aufbau und die Weiterentwicklung des Teams und gestalten zukünftige Fragestellungen rund um die Themen Analytics und Big Data mit. * Idealerweise bringen Sie Berufserfahrung in der Analyse, Konzeption und Implementierung von Data Science Prozessen mit oder h</t>
+    <t>Unser Mandant ist ein international agierendes Unternehmen im Bereich der Telekommunikation.Seine Dienstleistung umfasst ein spannendes Portfolio – Vernetzung…</t>
+  </si>
+  <si>
+    <t>Linking up and Aligning with the Architecture team to build technically sound and well-maintained data pipelines to constantly enrich, prepare and analyze data,…</t>
+  </si>
+  <si>
+    <t>Für einen Kunden in München suche ich zum nächst möglichen Starttermin einen:Data Scientisten (M/W/D).Falls du Interesse haben solltest und folgende Erfahrung…</t>
+  </si>
+  <si>
+    <t>Der Hauptabteilung „Materials Management &amp; IT“ gehört zum Unternehmensbereich Diagnostics Operations und stellt die gesamtheitliche Planung und Steuerung der…</t>
   </si>
   <si>
     <t>Datenanalyse – Du bearbeitest große strukturierte und unstrukturierte Daten auf und analysierst sie, dabei erkennst du Muster und wendest Verfahren aus den Bereichen Data-Mining, Predictive-Analytics und Machine-Learning spielend an. Weiterentwicklung – Du wählst passende Visualisierungs- und Analyse-Tools aus und entwickelst unsere Big Data &amp; Analytics-Landschaft aktiv weiter. Du verfügst über gute Kenntnisse in mindestens einer Data-Science-nahen Programmierungsumgebung wie R, Python, Matlab (oder ähnliche) sowie Erfahrung relationalen Datenbanken und NoSQL-Datenbanken. Du bringst praktische Erfahrungen mit Projekten und Fragestellungen, bei denen Advanced-Analytics-Methoden wie Data-Mining, Predictive- Analytics oder Machine-Learning zum Einsatz gekommen sind, mit.</t>
   </si>
   <si>
-    <t>At least one year of experience working as a Data Scientist The Data Science department uses state-of-the-art machine learning and optimization techniques to continuously improve business processes at NEW YORKER. * Execution of explorative analyses of structured and unstructured data sets as well as feature engineering * Definition and development of new data science use cases * Interest in working both on the research and engineering aspects of data science * Lifelong learner who stays up to date in the fast-moving field of data science * Working in a joint data science and data engineering team * Realization of data solutions impacting 1100 stores in 45 countries</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist Advanced Manufacturing Data Analytics als Projektleiter (m/w/d).Der Hauptabteilung „Materials Management &amp; IT“ gehört zum…</t>
+    <t>Big Data Engineer / Data Scientist (m/w/d) saracus ist eines der führenden unabhängigen Beratungsunternehmen für Data &amp; Analytics in der Cloud und On-Premises im deutschsprachigen Raum mit mehr als 80 Consultants. Sie möchten alles über Data &amp; Analytics in der Cloud und On-Premises erlernen, um es dann in spannenden Projekten umzusetzen? * Im Team: Planung, Konzeption, Umsetzung und Wartung von Lösungen im Bereich Data &amp; Analytics - alternativ Basic-Know-how aus den Bereichen Cloud-Entwicklung, Big Data oder Data Science</t>
   </si>
   <si>
     <t>Zum nächstmöglichen Zeitpunkt suchen wir einen Data Scientist (m/w/d) - in Hamburg In Vollzeit oder als Job-Share / Teilzeit – Modell möglich - Als Data Scientist (m/w/d) bist du Teil eines funktionsübergreifenden Teams mit der Aufgabe, für unseren Großverbraucherbereich Unilever Food Solutions &amp; Langnese, analytische Datendienste zu entwickeln und bereitzustellen sowie Geschäftsfragen basierend auf Daten zu beantworten. * Gemeinsam mit dem Data Team entwickelst du hochmoderne Berichte und Dashboards um bessere Einblicke in die Unternehmenssteuerung zu erhalten * Expertenkenntnisse in: Programmier- und Skriptsprachkenntnisse (z.B. Python, R, Spark); Predictive Modeling sowie Data mining</t>
   </si>
   <si>
-    <t>Unser Mandant ist ein international agierendes Unternehmen im Bereich der Telekommunikation.Seine Dienstleistung umfasst ein spannendes Portfolio – Vernetzung…</t>
-  </si>
-  <si>
-    <t>You help develop Proof of Value / MVPs, perform ad hoc data requests, explore new data sources and build new data feeds.What we are looking for.</t>
-  </si>
-  <si>
-    <t>Für unsere Hauptverwaltung in Essen.Sie begeistern sich für den Trend Data Science?Dann hat die NOWEDA-Gruppe einiges für Sie zu bieten!</t>
-  </si>
-  <si>
-    <t>IT.NRW wird künstliche Intelligenz (KI) und maschinelles Lernen (ML) als eine wichtige Säule der technologischen Weiterentwicklung nutzen und damit die…</t>
-  </si>
-  <si>
-    <t>Linking up and Aligning with the Architecture team to build technically sound and well-maintained data pipelines to constantly enrich, prepare and analyze data,…</t>
+    <t xml:space="preserve">You have at least two years of professional experience as a Data Scientist (m/w/d) and in-depth knowledge of machine learning, deep learning and statistics - In our central data division of the Mediengruppe RTL, Data &amp; Audience Intelligence, we bundle our expertise in the field of data and data technologies and drive the digital change in the media industry both within the company and across markets. We develop data-driven solutions with the help of analytics, machine learning and artificial intelligence, thereby continually expanding our competitive advantage in the German market. The special combination of our business model, which is based on the pillars of "Publishing" and "Advertising", creates countless application possibilities for data-driven </t>
+  </si>
+  <si>
+    <t>DATA SCIENTIST - PRODUCT DEVELOPMENT (W/M/D).Bei IONOS arbeiten Sie bei dem führenden europäischen Anbieter von Cloud-Infrastruktur, Cloud-Services und Hosting…</t>
+  </si>
+  <si>
+    <t>Analyzing data from various sources in context of researchi on compound stability in drugs, initiating new research activities with your results in the lab of our customer. * Conversion of customer requirements into value use cases and development of optimization through evaluation of high-dimensional data sets. * Expert in biostatistics, Machine Learning and omics data analysis.</t>
+  </si>
+  <si>
+    <t>As a data scientist at ImmerLearn, you work hand-in-hand with client-facing consultants to build technical solutions.</t>
+  </si>
+  <si>
+    <t>Working with Data Lakes, Data Warehouses and different data structures is nothing new to you and you are able to source the required data from different areas.</t>
+  </si>
+  <si>
+    <t>Develop meaningful insights and data models for our clients.Consultant (m/f/d) Data Scientist – Germany.We are looking for a new colleague to support our Data…</t>
+  </si>
+  <si>
+    <t>GESUCHT IN BONN, AB SOFORT UND IN VOLLZEIT.DATA SCIENTIST (M/W/D) PRICING - DHL PAKET.Sie sind Ideengeber und begeistern sich für Innovationen und dynamische…</t>
+  </si>
+  <si>
+    <t>You have experience with Python or R for data analysis.You have 2+ years of industry/consulting experience in a data role.State of the art work equipment.</t>
+  </si>
+  <si>
+    <t>In-depth experience in Business Intelligence, data reporting, and analytic tools.Creates BI dashboards, reports, and portal and integrating multiple data…</t>
+  </si>
+  <si>
+    <t>D&amp;TS ist ein international agierendes Beratungs- und Software-Unternehmen in den Bereichen Master Data-Management und Klassifizierung.</t>
   </si>
   <si>
     <t>Wir sind die Experten für Künstliche Intelligenz und Industrie 4.0 aus Essen.Seit über 20 Jahren fest mit dem Ruhrgebiet verwurzelt, geben wir einem der…</t>
   </si>
   <si>
-    <t>Für einen Kunden in München suche ich zum nächst möglichen Starttermin einen:Data Scientisten (M/W/D).Falls du Interesse haben solltest und folgende Erfahrung…</t>
-  </si>
-  <si>
-    <t>Sie übernehmen Assessment, Konzeption und Einführung von Use Cases im Big Data Projekt Process Mining &amp; Analytics.Deutsche Telekom Services Europe SE.</t>
-  </si>
-  <si>
-    <t>As a data scientist at ImmerLearn, you work hand-in-hand with client-facing consultants to build technical solutions.</t>
-  </si>
-  <si>
-    <t>Working with Data Lakes, Data Warehouses and different data structures is nothing new to you and you are able to source the required data from different areas.</t>
-  </si>
-  <si>
-    <t>Develop meaningful insights and data models for our clients.Consultant (m/f/d) Data Scientist – Germany.We are looking for a new colleague to support our Data…</t>
-  </si>
-  <si>
-    <t>GESUCHT IN BONN, AB SOFORT UND IN VOLLZEIT.DATA SCIENTIST (M/W/D) PRICING - DHL PAKET.Sie sind Ideengeber und begeistern sich für Innovationen und dynamische…</t>
-  </si>
-  <si>
-    <t>You have experience with Python or R for data analysis.You have 2+ years of industry/consulting experience in a data role.State of the art work equipment.</t>
-  </si>
-  <si>
-    <t>In-depth experience in Business Intelligence, data reporting, and analytic tools.Creates BI dashboards, reports, and portal and integrating multiple data…</t>
-  </si>
-  <si>
-    <t>D&amp;TS ist ein international agierendes Beratungs- und Software-Unternehmen in den Bereichen Master Data-Management und Klassifizierung.</t>
-  </si>
-  <si>
     <t>Du hast ein Gespür für datengetriebene Geschäftsmodelle und data informed/data driven publishing.Pd digital ist die digitale Heimat der Mediengruppe…</t>
   </si>
   <si>
-    <t>DATA SCIENTIST - PRODUCT DEVELOPMENT (W/M/D).Bei IONOS arbeiten Sie bei dem führenden europäischen Anbieter von Cloud-Infrastruktur, Cloud-Services und Hosting…</t>
-  </si>
-  <si>
-    <t>Analyzing data from various sources in context of researchi on compound stability in drugs, initiating new research activities with your results in the lab of our customer. * Conversion of customer requirements into value use cases and development of optimization through evaluation of high-dimensional data sets. * Expert in biostatistics, Machine Learning and omics data analysis.</t>
+    <t>Die Automatisierung der Data Pipelines über Tools (z. B. Airflow und Docker) gehört zu Ihrem Aufgabengebiet * Sie haben ein abgeschlossenes Studium mit Schwerpunkten in den Bereichen Data Science, (Wirtschafts)-mathematik, -informatik oder haben eine vergleichbare Ausbildung mit entsprechender Zusatzqualifikation</t>
+  </si>
+  <si>
+    <t>Im Rahmen der IT Strategie sind wir dabei, die Anforderungen an durch moderne IT gesteuerte Finanzdienstleistungen der Zukunft zu gestalten.</t>
+  </si>
+  <si>
+    <t>Wir suchen dich ab sofort.Data und AI Plattformen sind dein zu Hause.Des weitern gestaltet sich deine neue Herausforderung wie folgt:</t>
+  </si>
+  <si>
+    <t>Perform complex statistical analyses on large data sets of unique psychometric data.4+ years of highly relevant industry work experience in data science,…</t>
+  </si>
+  <si>
+    <t>Unternehmen befinden sich weltweit in einem digitalen Wandel.Big Data, Internet of Things und Industrie 4.0 lauten die Schlüsselwörter der Digitalisierung.</t>
+  </si>
+  <si>
+    <t>Eine der größten Banken in Deutschland sucht einen qualifizierten Senior Data Engineer für Berlin.Du möchtest das Geschäft mit ehrgeizigen Teammitgliedern…</t>
   </si>
   <si>
     <t>Dann bewerben Sie sich als Data Scientist (m/w/d) in Advanced Customer Analytics, der Analytics-Einheit der größten deutschen Direktversicherung! Sie haben keine Angst vor Big Data?</t>
@@ -1321,304 +1387,280 @@
     <t>Dann verbinde Dein Können mit besten Aussichten als Data Scientist (m/w/d) Informatiker / Physiker / Mathematiker - Werde Teil unseres Network Analytics Data Science Teams und beschäftige Dich mit Big Data Analytics zur Optimierung des Netzes und der Services von Vodafone Deutschland. Verwende Data Science Methoden um Netzprobleme zu identifizieren und präventiv und automatisiert zu beheben. * Du evaluierst große Datenmengen mit state-of-the-art Data Science Methoden wie machine learning, classification, clustering und pattern search * Du implementierst Algorithmen zur Detektion von Netz- und Servicestörungen in real-time und unterstützt uns beim Vorantreiben der data-driven automation * Ausgeprägte analytische Fähigkeiten, Data-Science-Know-How, Stat</t>
   </si>
   <si>
-    <t>Die Automatisierung der Data Pipelines über Tools (z. B. Airflow und Docker) gehört zu Ihrem Aufgabengebiet * Sie haben ein abgeschlossenes Studium mit Schwerpunkten in den Bereichen Data Science, (Wirtschafts)-mathematik, -informatik oder haben eine vergleichbare Ausbildung mit entsprechender Zusatzqualifikation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have at least two years of professional experience as a Data Scientist (m/w/d) and in-depth knowledge of machine learning, deep learning and statistics - In our central data division of the Mediengruppe RTL, Data &amp; Audience Intelligence, we bundle our expertise in the field of data and data technologies and drive the digital change in the media industry both within the company and across markets. We develop data-driven solutions with the help of analytics, machine learning and artificial intelligence, thereby continually expanding our competitive advantage in the German market. The special combination of our business model, which is based on the pillars of "Publishing" and "Advertising", creates countless application possibilities for data-driven </t>
-  </si>
-  <si>
-    <t>Im Rahmen der IT Strategie sind wir dabei, die Anforderungen an durch moderne IT gesteuerte Finanzdienstleistungen der Zukunft zu gestalten.</t>
-  </si>
-  <si>
-    <t>Perform complex statistical analyses on large data sets of unique psychometric data.4+ years of highly relevant industry work experience in data science,…</t>
-  </si>
-  <si>
-    <t>Eine der größten Banken in Deutschland sucht einen qualifizierten Senior Data Engineer für Berlin.Du möchtest das Geschäft mit ehrgeizigen Teammitgliedern…</t>
-  </si>
-  <si>
-    <t>Unternehmen befinden sich weltweit in einem digitalen Wandel.Big Data, Internet of Things und Industrie 4.0 lauten die Schlüsselwörter der Digitalisierung.</t>
-  </si>
-  <si>
-    <t>Wir suchen dich ab sofort.Data und AI Plattformen sind dein zu Hause.Des weitern gestaltet sich deine neue Herausforderung wie folgt:</t>
-  </si>
-  <si>
-    <t>Der Hauptabteilung „Materials Management &amp; IT“ gehört zum Unternehmensbereich Diagnostics Operations und stellt die gesamtheitliche Planung und Steuerung der…</t>
-  </si>
-  <si>
-    <t>Big Data Engineer / Data Scientist (m/w/d) saracus ist eines der führenden unabhängigen Beratungsunternehmen für Data &amp; Analytics in der Cloud und On-Premises im deutschsprachigen Raum mit mehr als 80 Consultants. Sie möchten alles über Data &amp; Analytics in der Cloud und On-Premises erlernen, um es dann in spannenden Projekten umzusetzen? * Im Team: Planung, Konzeption, Umsetzung und Wartung von Lösungen im Bereich Data &amp; Analytics - alternativ Basic-Know-how aus den Bereichen Cloud-Entwicklung, Big Data oder Data Science</t>
+    <t>Camelot Innovative Technologies Lab is the leading SAP consultancy for digital value chain management.Our capabilities range from the strategic dialogue around…</t>
+  </si>
+  <si>
+    <t>Wir sind die Positive Thinking Company.Wir suchen Ihr Talent und Ihre Leidenschaft zur Verstärkung unserer Entwicklungsexperten.</t>
+  </si>
+  <si>
+    <t>Understand required data, identify where data sets reside and their underlying structure to manipulate through SQL queries.</t>
+  </si>
+  <si>
+    <t>Wir suchen für unseren Standort Hamburg-Dammtor einen Actuarial Data Scientist &amp; Fullstack Developer (m/w/d) * Offenheit/Wunsch zur DAV-Ausbildung zum "Aktuar" und "Certified Actuarial Data Scientist" * Mitarbeit im Data Analytics Team der Krankenversicherung und bedarfsgerechte Servicierung der spartenspezifischen Delivery Units * MSc oder Promotion in quantitativ / technisch orientierter Fachrichtung (z.B. Physik, Mathematik, Informatik, Data Science, Ingenieurwesen) * Exzellente Data Storytelling- und Visualisierungsfähigkeiten, um komplexe Sachverhalte verständlich zu vermitteln und die Zuhörer für neue Ideen zu begeistern.</t>
+  </si>
+  <si>
+    <t>Collaborate with Product, Creative and Performance teams to develope metrics that evaluate performance of data products.In this respect, leads by example.</t>
+  </si>
+  <si>
+    <t>Durch den Einsatz modernster Big Data Technologien und Methoden der künstlichen Intelligenz hilft CYOSS ihren Kunden, aus großen Datenmengen wegweisende Erkenntnisse sowie handfeste Werte zu generieren. * Du arbeitest eng mit den Teams Data Engineering und Analytic Infrastructure zusammen * Du verfügst über ein abgeschlossenes Master-Studium der Fachrichtung Data Science, Mathematik, (Wirtschafts-) Informatik, Statistik oder ähnliches</t>
+  </si>
+  <si>
+    <t>Als Data Scientist (m/w/d) unterstützt du dein Team dabei, spezifische Probleme mithilfe moderner Techniken des Machine Learning (ML) und des Data Mining zu lösen. Wir suchen für unsere Standorte Hamburg oder Dortmund ab sofort einen Data Scientist (m/w/d) * Sehr gute Kenntnisse in der Anwendung von Machine-Learning-, Optimierungs- und Data Mining-Methoden</t>
+  </si>
+  <si>
+    <t>Sie verantworten Projekte für die Datenbeschaffung, Analyse, von/mit großen Datenmengen mittels gängigen Data Science Methoden (z.B. Datenbeschaffung aus ERP, Datenmodelierung, DatenAnalytics, Prediktive Verfahren, etc.) im Produktionsumfeld * Sie übernehmen die Planung und Durchführung von Data Analytics/Science Projekten in enger Abstimmung mit internen und externen Partnern / Stakeholdern * Sie behalten stets den aktuellen Überblick über die Produktionsprozesse/ SAP Landschaft sowie Data Analytics Landscape und übernehmen das systematische Screening und die Evaluierung von neuen Methoden und Modellen * Sie haben ein Masterstudium im Bereich Mathematik, Ingenieurwissenschaften oder Naturwissenschaften mit Bezug zu bzw. Erfahrung in der Analyse großer Datenmengen bzw. Data Science im Produktionsumfel</t>
+  </si>
+  <si>
+    <t>Die ADEAL Systems GmbH (ADEAL = Agile Data Engineering and AnaLytics) bietet innovative Data Engineering und Analytics Dienstleistungen für Unternehmen an,…</t>
+  </si>
+  <si>
+    <t>Therefore, you will develop Machine Learning (ML) models based on very high dimensional and complex data to predict and/or detect critical parameters, inline…</t>
   </si>
   <si>
     <t>Unser Kunde kommt ursprünglich aus der Outdoor Industrie, hat sich im Laufe der Jahre in diesem Bereich als einer der Marktführer entwickelt und ist seit…</t>
   </si>
   <si>
+    <t>Experience working as a data scientist previously.Data Scientist | Computer Vision | Python | OpenCV | YOLO | PyTorch | Tensorflow | Freelance Job | Remote…</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d).Du weißt, wie man richtig sucht und findest in komplexen Datenmengen Informationen, die anderen verborgen bleiben?</t>
+  </si>
+  <si>
+    <t>Wir suchen dich ab sofort.Data undAIPlattformen sind dein zu Hause.Des weitern gestaltet sich deine neue Herausforderung wie folgt:Ein Office in bester Lage.</t>
+  </si>
+  <si>
+    <t>Konzeption und Implementierung neuer Data Science Use Cases in Zusammenarbeit mit unterschiedlichsten Fachbereichen und damit Mitarbeit an neuen…</t>
+  </si>
+  <si>
+    <t>Bundesweit, idealerweise für unser Büro München oder Magdeburg suchen wir Sie als.Entwickler Business Intelligence (m/w/d) - Data Scientist in Vollzeit.</t>
+  </si>
+  <si>
+    <t>Camelot Innovative Technologies Lab ist das führende SAP Beratungshaus für digitales Value Chain Management.Seit mehr als 20 Jahren begleiten wir unsere Kunden…</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d).Gehalt: 50.000 € - 75.000 €.Unser Kunde ist ein erfolgreicher Global Player aus der Finanz Industrie.Viel Spielraum für eigene Ideen.</t>
+  </si>
+  <si>
+    <t>Möchten Sie Ihre Ideen in nutzbringende und sinnvolle Technologien verwandeln?Ob im Bereich Mobility Solutions, Consumer Goods, Industrial Technology oder…</t>
+  </si>
+  <si>
+    <t>Das Unternehmen kommt aus der Medienbranche.Du gewinnst und veranschaulichst neue Erkenntnisse aus Daten mittels Dashboards und Analysen.</t>
+  </si>
+  <si>
+    <t>In den unterschiedlichsten Bereichen und Branchen.Das alles finden Sie spannend?Das alles finden Sie bei uns.Know How im agilen Projektmanagement.</t>
+  </si>
+  <si>
     <t>Experience with data analysis of spectroscopic methods desirable.Development of customer-specific automation processes for data analysis.</t>
   </si>
   <si>
     <t>NorCom entwickelt Big-Data- und KI-Lösungen für internationale Unternehmen.Unser Team aus Data Scientists, Data Engineers und Applikations-Entwickler setzt…</t>
   </si>
   <si>
-    <t>Collaborate with Product, Creative and Performance teams to develope metrics that evaluate performance of data products.In this respect, leads by example.</t>
-  </si>
-  <si>
-    <t>Understand required data, identify where data sets reside and their underlying structure to manipulate through SQL queries.</t>
-  </si>
-  <si>
-    <t>Therefore, you will develop Machine Learning (ML) models based on very high dimensional and complex data to predict and/or detect critical parameters, inline…</t>
-  </si>
-  <si>
-    <t>Camelot Innovative Technologies Lab ist das führende SAP Beratungshaus für digitales Value Chain Management.Seit mehr als 20 Jahren begleiten wir unsere Kunden…</t>
+    <t>Programmierung und Anwendung analytischer Methoden mit Python und / oder R insbesondere deren Data-Science Stacks (pandas, scikit-learn, caret, tidyverse, etc.) * Entwicklung von Data Pipelines mit Java, Scala oder Python * Verteilte Systeme und gängige Big Data Technologien (Hadoop, Spark, Cassandra, Kafka)</t>
+  </si>
+  <si>
+    <t>Unser Partner LIFEBONUS verfolgt die Vision, das Thema betriebliche Gesundheitsförderung digital zu revolutionieren.Sicherer Umgang mit Python oder C/C++.</t>
+  </si>
+  <si>
+    <t>For our team in Haar by Munich we are looking for additional Data Scientists - Customer Analytics (m/f) who bring their mindset, skillset and love for data in helping the business to better understand our customers and their needs. We are looking for Data Scientists – Customer Analytics (m/f/d) starting full-time as soon as possible. Data &amp; analytics are becoming a key enabler of business decisions. You will be part of the growing and open-minded Data Science team with fresh experience from other industries. Drive the data &amp; analytics knowledge with your advanced analytics expertise and influence business decisions by extracting insights from data! * Define data-driven customer profiling * Pro-actively mine data to id</t>
+  </si>
+  <si>
+    <t>Drive mindset change towards the digital transformation data principles, enable sharing, communicate successes and failures, advertise data sharing and insights…</t>
+  </si>
+  <si>
+    <t>Für meinen Kunden bin ich aktuell auf der Suche nach einem freiberuflichen Data-Scientist zur temporären Unterstützung des Teams.Was werden Ihre Aufgaben sein?</t>
+  </si>
+  <si>
+    <t>Data Scientist mit Projekterfahrung im Marketing Model Mix (MMM).</t>
+  </si>
+  <si>
+    <t>You will spend 2/3 of your time teaching and managing the bootcamp, with 1/3 of your time working with our internal data team to improve Le Wagon\’s products…</t>
+  </si>
+  <si>
+    <t>Metabo macht Elektrowerkzeuge für den professionellen Einsatz in Handwerk und Industrie.Dafür suchen wir für unseren Bereich Order Fulfillment einen.</t>
+  </si>
+  <si>
+    <t>Zur Verstärkung unseres Teams suchen wir am Standort Düsseldorf einen Data Scientist (m/w/d) Darüber hinaus unterstützen bei Publicis Media zentrale Spezialistenteams die Kunden der Agenturen in den Bereichen: Data und Technology, Analytics und Insights, Research, Content, Performance, Buying und Business Development.</t>
   </si>
   <si>
     <t>Wir suchen zum nächstmöglichen Zeitpunkt am Standort Luxemburg (Grevenmacher) für eine langfristige Zusammenarbeit in Teil- oder Vollzeit (mind. 20 Std./Woche) eine/n JUNIOR DATA SCIENTIST (m/w/d) Wir stehen für Expertise in Medienbeobachtung und -analyse, Data Intelligence und Social Media Marketing. * Transfer und Visualisierung von Daten und Informationen in Software-Tools wie Tableau, Power BI oder Google Data Studio * Mitwirkung bei der Entwicklung unserer technischen Data-Science-Infrastruktur * Weiterentwicklung unserer Data-Science- und Advanced-Analytics-Skills bei internen und externen Projekten * Abgeschlossenes Hochschulstudium in Informatik , Wirtschaftsinformatik , Wirtschaftsmathematik oder einem ähnlichen Bereich mit Erfahrungen in Data Science / Machi</t>
   </si>
   <si>
-    <t>Das Unternehmen kommt aus der Medienbranche.Du gewinnst und veranschaulichst neue Erkenntnisse aus Daten mittels Dashboards und Analysen.</t>
-  </si>
-  <si>
-    <t>Bundesweit, idealerweise für unser Büro München oder Magdeburg suchen wir Sie als.Entwickler Business Intelligence (m/w/d) - Data Scientist in Vollzeit.</t>
-  </si>
-  <si>
-    <t>Wir suchen dich ab sofort.Data undAIPlattformen sind dein zu Hause.Des weitern gestaltet sich deine neue Herausforderung wie folgt:Ein Office in bester Lage.</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d).Gehalt: 50.000 € - 75.000 €.Unser Kunde ist ein erfolgreicher Global Player aus der Finanz Industrie.Viel Spielraum für eigene Ideen.</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d).Du weißt, wie man richtig sucht und findest in komplexen Datenmengen Informationen, die anderen verborgen bleiben?</t>
-  </si>
-  <si>
-    <t>Konzeption und Implementierung neuer Data Science Use Cases in Zusammenarbeit mit unterschiedlichsten Fachbereichen und damit Mitarbeit an neuen…</t>
-  </si>
-  <si>
-    <t>Experience working as a data scientist previously.Data Scientist | Computer Vision | Python | OpenCV | YOLO | PyTorch | Tensorflow | Freelance Job | Remote…</t>
-  </si>
-  <si>
-    <t>Die ADEAL Systems GmbH (ADEAL = Agile Data Engineering and AnaLytics) bietet innovative Data Engineering und Analytics Dienstleistungen für Unternehmen an,…</t>
-  </si>
-  <si>
-    <t>In den unterschiedlichsten Bereichen und Branchen.Das alles finden Sie spannend?Das alles finden Sie bei uns.Know How im agilen Projektmanagement.</t>
-  </si>
-  <si>
-    <t>Unser Partner LIFEBONUS verfolgt die Vision, das Thema betriebliche Gesundheitsförderung digital zu revolutionieren.Sicherer Umgang mit Python oder C/C++.</t>
-  </si>
-  <si>
-    <t>Camelot Innovative Technologies Lab is the leading SAP consultancy for digital value chain management.Our capabilities range from the strategic dialogue around…</t>
-  </si>
-  <si>
-    <t>For our team in Haar by Munich we are looking for additional Data Scientists - Customer Analytics (m/f) who bring their mindset, skillset and love for data in helping the business to better understand our customers and their needs. We are looking for Data Scientists – Customer Analytics (m/f/d) starting full-time as soon as possible. Data &amp; analytics are becoming a key enabler of business decisions. You will be part of the growing and open-minded Data Science team with fresh experience from other industries. Drive the data &amp; analytics knowledge with your advanced analytics expertise and influence business decisions by extracting insights from data! * Define data-driven customer profiling * Pro-actively mine data to id</t>
-  </si>
-  <si>
-    <t>Programmierung und Anwendung analytischer Methoden mit Python und / oder R insbesondere deren Data-Science Stacks (pandas, scikit-learn, caret, tidyverse, etc.) * Entwicklung von Data Pipelines mit Java, Scala oder Python * Verteilte Systeme und gängige Big Data Technologien (Hadoop, Spark, Cassandra, Kafka)</t>
-  </si>
-  <si>
-    <t>Sie verantworten Projekte für die Datenbeschaffung, Analyse, von/mit großen Datenmengen mittels gängigen Data Science Methoden (z.B. Datenbeschaffung aus ERP, Datenmodelierung, DatenAnalytics, Prediktive Verfahren, etc.) im Produktionsumfeld * Sie übernehmen die Planung und Durchführung von Data Analytics/Science Projekten in enger Abstimmung mit internen und externen Partnern / Stakeholdern * Sie behalten stets den aktuellen Überblick über die Produktionsprozesse/ SAP Landschaft sowie Data Analytics Landscape und übernehmen das systematische Screening und die Evaluierung von neuen Methoden und Modellen * Sie haben ein Masterstudium im Bereich Mathematik, Ingenieurwissenschaften oder Naturwissenschaften mit Bezug zu bzw. Erfahrung in der Analyse großer Datenmengen bzw. Data Science im Produktionsumfel</t>
-  </si>
-  <si>
-    <t>Als Data Scientist (m/w/d) unterstützt du dein Team dabei, spezifische Probleme mithilfe moderner Techniken des Machine Learning (ML) und des Data Mining zu lösen. Wir suchen für unsere Standorte Hamburg oder Dortmund ab sofort einen Data Scientist (m/w/d) * Sehr gute Kenntnisse in der Anwendung von Machine-Learning-, Optimierungs- und Data Mining-Methoden</t>
-  </si>
-  <si>
-    <t>Durch den Einsatz modernster Big Data Technologien und Methoden der künstlichen Intelligenz hilft CYOSS ihren Kunden, aus großen Datenmengen wegweisende Erkenntnisse sowie handfeste Werte zu generieren. * Du arbeitest eng mit den Teams Data Engineering und Analytic Infrastructure zusammen * Du verfügst über ein abgeschlossenes Master-Studium der Fachrichtung Data Science, Mathematik, (Wirtschafts-) Informatik, Statistik oder ähnliches</t>
-  </si>
-  <si>
-    <t>Wir suchen für unseren Standort Hamburg-Dammtor einen Actuarial Data Scientist &amp; Fullstack Developer (m/w/d) * Offenheit/Wunsch zur DAV-Ausbildung zum "Aktuar" und "Certified Actuarial Data Scientist" * Mitarbeit im Data Analytics Team der Krankenversicherung und bedarfsgerechte Servicierung der spartenspezifischen Delivery Units * MSc oder Promotion in quantitativ / technisch orientierter Fachrichtung (z.B. Physik, Mathematik, Informatik, Data Science, Ingenieurwesen) * Exzellente Data Storytelling- und Visualisierungsfähigkeiten, um komplexe Sachverhalte verständlich zu vermitteln und die Zuhörer für neue Ideen zu begeistern.</t>
-  </si>
-  <si>
-    <t>Zur Verstärkung unseres Teams suchen wir am Standort Düsseldorf einen Data Scientist (m/w/d) Darüber hinaus unterstützen bei Publicis Media zentrale Spezialistenteams die Kunden der Agenturen in den Bereichen: Data und Technology, Analytics und Insights, Research, Content, Performance, Buying und Business Development.</t>
-  </si>
-  <si>
-    <t>Wir sind die Positive Thinking Company.Wir suchen Ihr Talent und Ihre Leidenschaft zur Verstärkung unserer Entwicklungsexperten.</t>
-  </si>
-  <si>
-    <t>Möchten Sie Ihre Ideen in nutzbringende und sinnvolle Technologien verwandeln?Ob im Bereich Mobility Solutions, Consumer Goods, Industrial Technology oder…</t>
-  </si>
-  <si>
     <t>Data Scientist (m/f/d) To optimize and automate processes in e-commerce operations and advertising we use state-of-the-art solutions in data integration, machine learning and analytics. * You design use cases based on the business challenge and create facts from existing data. * You communicate and visualize non-trivial insights and also the possibilities and limitations of data-driven methods in an understandable manner. * You have resilient hands-on experience with a data science toolset e.g., R, Python, Matlab, or Scala. * You have several years of experience in designing and implementing data science solutions, particular expertise in at least one of the following analysis methods: ANOVA, PCA, ARIMA, LCA, text mining or NLP.</t>
   </si>
   <si>
+    <t>ALD AutoLeasing D GmbH * Hamburg * Feste Anstellung * Vollzeit - Starte mit uns durch - ALD Automotive ist ein weltweit führender Anbieter von Mobilitätslösungen und bietet Unternehmen sowie Privatpersonen in 43 Ländern Dienstleistungen im Full-Service Leasing und Flottenmanagement. Das Unternehmen stellt nachhaltige Mobilität, innovative Mobilitätslösungen und technologiegestützte Dienstleistungen und hilft seinen Kunden, sich auf ihr tägliches Geschäft zu konzentrieren. Mit 6.500 Mitarbeitern weltweit verwaltet die ALD 1,87 Millionen Fahrzeuge. ALD Automotive Deutschland blickt auf 50 Jahre Erfahrung zurück und gehört in ihren Segmenten zu den marktführenden herstellerunabhängigen Mobilitätsdienstleistern. Mehr als 5.000 Kunden vertrauen auf die Serviceleistungen des Unternehmens, das in Deutschland rund 187.000 Fahrzeuge managt.</t>
+  </si>
+  <si>
+    <t>Idealerweise mehrjährige Berufserfahrung als Data Scientist oder Data Analyst - Die TUI Cruises GmbH sucht zum nächstmöglichen Zeitpunkt am Standort Hamburg eine/n Data Scientist* CRM. * Anreicherung von bestehenden Datenquellen (z.B. mithilfe von Clustering Algorithmen) unter Anwendung von Data Mining und Customer Analytics Methoden</t>
+  </si>
+  <si>
     <t>Knowledge of pharmaceutical market and experience with pharmaceutical data (medical, hospital, pharmacy, claims data) would be a plus, but not a must.</t>
   </si>
   <si>
     <t>Build data-driven applications for our ventures: data warehouses, predictions, recommendation engines, etc.You will make sure that all people and IT systems in…</t>
   </si>
   <si>
+    <t>Wir suchen ab sofort einen Data Scientist (m/w/d) in Vollzeit. * Du arbeitest in einem innovativen, selbstorganisierten Team, welches für die Informationsversorgung des Unternehmens, für Data-Science-Anwendungen sowie Trackingtechnologie zuständig ist * Zusätzlich bildet die Identifizierung, Entwicklung, Bereitstellung und Überwachung vielversprechender Machine Learning Usecases in enger Zusammenarbeit mit unseren Engineering- und Data-Teams einen wichtigen Schwerpunkt deiner Arbeit * Du treibst die qualitätsgetriebene Entwicklung und Automatisierung von Data Science Anwendungen im Unternehmen weiter voran * Du verfügst über Berufserfahrung im Bereich Data Science, Business Intelligence oder Softwareentwicklung und hast ein Studium der (Wirtschafts-)Informatik, Statistik, Mathematik o</t>
+  </si>
+  <si>
     <t>Logarithmo ist ein junges wachsendes IT-Unternehmen und entwickelt digitale Lösungen für energiewirtschaftliche Herausforderungen.</t>
   </si>
   <si>
+    <t>Analysieren komplexer Fragestellungen und Szenarien.Konzipierung und Realisierung attraktiver Lösungen und performanter Datenmodelle auf Basis von großen und…</t>
+  </si>
+  <si>
+    <t>The engineering &amp; ETL work to process all customer data is done by our data team – who deliver to your ML team data from all customers in a unified format.</t>
+  </si>
+  <si>
     <t>Analysieren komplexer Fragestellungen und Szenarien.Konzipierung und Realisierung attraktiver Lösungen und performanter Datenmodelle.</t>
   </si>
   <si>
-    <t>Analysieren komplexer Fragestellungen und Szenarien.Konzipierung und Realisierung attraktiver Lösungen und performanter Datenmodelle auf Basis von großen und…</t>
-  </si>
-  <si>
-    <t>You will spend 2/3 of your time teaching and managing the bootcamp, with 1/3 of your time working with our internal data team to improve Le Wagon\’s products…</t>
-  </si>
-  <si>
-    <t>Metabo macht Elektrowerkzeuge für den professionellen Einsatz in Handwerk und Industrie.Dafür suchen wir für unseren Bereich Order Fulfillment einen.</t>
-  </si>
-  <si>
-    <t>The engineering &amp; ETL work to process all customer data is done by our data team – who deliver to your ML team data from all customers in a unified format.</t>
-  </si>
-  <si>
-    <t>Als Senior Data Scientist bist Du ein erfahrenes Multitalent und bedienst die Schnittstelle zwischen Kommunikation und fachlichen Kompetenzen, um unseren Kunden…</t>
+    <t>Knowledge of analytics and data science domains, including statistics and data analysis.Algorithm development and data visualisation.</t>
+  </si>
+  <si>
+    <t>Analysis of complex data, data preparation and development of prognostic models based on modern statistical methods * Advancement of our innovative services through use of modern technologies in data analytics and Big Data * Consolidation of data and analyses results as well as creation of appropriate visualization to conclude recommendations for action * Good background in using Big Data technologies such as Apache Hadoop Framework (Hive, Impala, Spark, Pig) and/or AWS (Amazon Web Services) * Extensive experience in the area of data modelling and data visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition und Design zielgerichteter Reports und Dashboards über das vorhandene Business Intelligence System (Microstrategy) basierend auf den Geschäftsanforderungen aller Unternehmensfunktionen (Finance, Sales, Marketing, Medizin, Pricing &amp; Market Access) sowie den globalen Data Insights Funktionen und kontinuierliche Weiterentwicklung und Optimierung * Identifizierung und Konsolidierung von Data &amp; Analytics Initiativen, Möglichkeiten &amp; Anforderungen gemeinsam mit den lokalen und globalen Data &amp; Analytics Funktionen, Finance, Sales, Marketing, Pricing &amp; Market Access u.a * Abgeschlossenes Studium zum Beispiel der Mathematik/Statistik, Operations Research, (Wirtschafts-)Informatik, Gesundheitsökonomie, Betriebswirtschaft, Data Science oder vergleichbare langjährige Berufserfahrung * Expertise in </t>
+  </si>
+  <si>
+    <t>An unseren Standorten in Berlin, Hoppegarten, Dortmund und Hilden bieten wir Dir ab sofort die Chance als Data Scientist (w/m/d). Unser Ziel ist dabei nichts Geringeres als mit Dir den Bereich Data Science aufzubauen und weiter an unserer digitalen Erfolgsstory zu schreiben. * Als erfahrener Analyst treibst Du den Aufbau des Bereichs Data Science in unserer Einheit maßgeblich voran. * Du hast einen guten Studienabschluss im Bereich Data Science, Mathematik / Statistik, Informatik oder eine vergleichbare Qualifikation mit Fokus auf Datenmodellierung.</t>
+  </si>
+  <si>
+    <t>We consult and advise on modelling, methods, how to make best use of data. * Analyze data and apply predictive modelling, in particular for claims behavior * Also spend time on data preparation beforehand, detecting data errors and finding and adjusting for missing data (actual data doesn't look like academic data) * A steep learning curve and lots of exposure to actuarial and data science methods</t>
+  </si>
+  <si>
+    <t>Erfahrung im Bereich im Bereich Data Science insbesondere in der Anwendung künstlicher neuronaler Netze</t>
+  </si>
+  <si>
+    <t>Erfahrung im Bereich Data Science, Statistik, Machine Learning und Mustererkennung</t>
+  </si>
+  <si>
+    <t>Werden Sie ein Teil des Teams und bewerben sich als Data Analyst (m/w/d) - Data Scientist im Raum Köln. * Einschlägige Berufserfahrung im Bereich Data Analyse / Data Science, sehr gute Kenntnisse in der Programmierung (Java, Python, R) sowie Erfahrung mit Visualisierungstools (Power BI, Tableau)</t>
   </si>
   <si>
     <t>Als (Junior) Data Scientist / Data Analyst (w/m/d) analysierst und bewertest Du große Datenmengen und hilfst unseren Kunden dadurch die besten Entscheidungen für ihr Unternehmen zu treffen. * Um bei uns als (Junior) Data Scientist / Data Analyst (w/m/d) an Bord zu kommen, hast Du Dein Studium der Mathematik , Wirtschaftsmathematik , Statistik , Informatik , Wirtschaftsinformatik , Physik , Wirtschaftsingenieurwesen oder des Ingenieurwesens erfolgreich abgeschlossen. Du willst Big Data in Smart Data verwandeln? * Mithilfe von Data Mining, Predictive Analytics und Machine Learning-Methoden erkennst Du Muster und erstellst daraus Prognosen für die Zukunft.</t>
   </si>
   <si>
-    <t>Data Scientist mit Projekterfahrung im Marketing Model Mix (MMM).</t>
-  </si>
-  <si>
-    <t>Wir suchen ab sofort einen Data Scientist (m/w/d) in Vollzeit. * Du arbeitest in einem innovativen, selbstorganisierten Team, welches für die Informationsversorgung des Unternehmens, für Data-Science-Anwendungen sowie Trackingtechnologie zuständig ist * Zusätzlich bildet die Identifizierung, Entwicklung, Bereitstellung und Überwachung vielversprechender Machine Learning Usecases in enger Zusammenarbeit mit unseren Engineering- und Data-Teams einen wichtigen Schwerpunkt deiner Arbeit * Du treibst die qualitätsgetriebene Entwicklung und Automatisierung von Data Science Anwendungen im Unternehmen weiter voran * Du verfügst über Berufserfahrung im Bereich Data Science, Business Intelligence oder Softwareentwicklung und hast ein Studium der (Wirtschafts-)Informatik, Statistik, Mathematik o</t>
-  </si>
-  <si>
-    <t>Idealerweise mehrjährige Berufserfahrung als Data Scientist oder Data Analyst - Die TUI Cruises GmbH sucht zum nächstmöglichen Zeitpunkt am Standort Hamburg eine/n Data Scientist* CRM. * Anreicherung von bestehenden Datenquellen (z.B. mithilfe von Clustering Algorithmen) unter Anwendung von Data Mining und Customer Analytics Methoden</t>
-  </si>
-  <si>
-    <t>ALD AutoLeasing D GmbH * Hamburg * Feste Anstellung * Vollzeit - Starte mit uns durch - ALD Automotive ist ein weltweit führender Anbieter von Mobilitätslösungen und bietet Unternehmen sowie Privatpersonen in 43 Ländern Dienstleistungen im Full-Service Leasing und Flottenmanagement. Das Unternehmen stellt nachhaltige Mobilität, innovative Mobilitätslösungen und technologiegestützte Dienstleistungen und hilft seinen Kunden, sich auf ihr tägliches Geschäft zu konzentrieren. Mit 6.500 Mitarbeitern weltweit verwaltet die ALD 1,87 Millionen Fahrzeuge. ALD Automotive Deutschland blickt auf 50 Jahre Erfahrung zurück und gehört in ihren Segmenten zu den marktführenden herstellerunabhängigen Mobilitätsdienstleistern. Mehr als 5.000 Kunden vertrauen auf die Serviceleistungen des Unternehmens, das in Deutschland rund 187.000 Fahrzeuge managt.</t>
+    <t>The Applied ML, Data- and Software Engineering team is one part of the BCAI with the mission to incubate, engineer and roll out AI solutions to Bosch. We work closely with domain experts on real-world applications to transform Bosch into a data-driven company. * You will translate business needs into technical solutions and develop advanced deep learning (DL) models for data (e.g. images, time series measurements, etc.) from different domains such as manufacturing. Take responsibility for the modelling process from raw data to deployment ready model for production. * Be part of the team and collaborate with domain experts and engineering teams to execute challenging data science projects. * Experience and Knowledge: PhD or Master with several years of professional experience, proficie</t>
+  </si>
+  <si>
+    <t>Erste Berufserfahrung als Data Scientist * Erfahrung in den Bereichen Big Data und Advanced Analytics, Data Mining, R, SAS sowie in der Programmierung</t>
+  </si>
+  <si>
+    <t>Dabei setzen Sie sowohl konventionelle quantitative als auch innovative Machine Learning und Big Data Methoden ein. * Akkreditierter Master- oder gleichwertiger Studienabschluss der Datenwissenschaften (Data Science), Informatik, Wirtschaftswissenschaften oder vergleichbarer Abschluss mit überdurchschnittlichem Ergebnis * Kenntnisse in der Datenverarbeitung (z. B. Datenbanken, Data Lakes) und Visualisierung mit Analytics Tools (z. B. Tableau, Power BI, R Shiny)</t>
+  </si>
+  <si>
+    <t>As a (Senior) Data Scientist (f/m/d) at RISK IDENT, you will take responsibility to develop new analytical product features and data services, jump into real fraud discovery data projects, enhance our statistical modeling, and take care of sensitive customer projects, occasionally taking place on-site. We are looking for a passionate (Senior) Data Scientist (f/m/d) to join our Analytics team. The Analytics team consists of data scientists in order to bridge seamlessly between advanced analytics and Scrum-based product development. In this never-ending race, we are fighting the bad guys with state-of-the-art technology and with powerful data analytics. At RISK IDENT, we fight fraudsters by analysing data collections viewed as time-evolving networks tha</t>
   </si>
   <si>
     <t>Weitergabe des Data Science Know-how innerhalb des Unternehmens sowie Unterstützung der Divisionen bei der Entwicklung ihrer Datenstrategien * Mindestens fünf Jahre Berufserfahrung im Bereich Data Science * Begeisterung für Data, Analytics und Künstliche Intelligenz</t>
   </si>
   <si>
+    <t>You as the Data Scientist will complete the TOMRA Sorting Digital Core Team. * Guiding the data science team covering the operational data analytics based on domain knowhow, supporting troubleshooting and validating correlations, and supporting the R&amp;D team with a focus on data science and development of algorithms * Generating new valuable insights based on the collected data in motion and at rest, as well as unstructured external data sources across all TOMRA Sorting Business Streams * Establishing and managing the “TOMRA Space Center”, monitoring and running all data analytics services of TOMRA Insight * Becoming an active thought leader and internal advisor for data science in the respective industries in which TOMRA is active (Fo</t>
+  </si>
+  <si>
+    <t>Zielgerichtete Informationsgewinnung aus Text- und Sprachdaten mittels Data Mining und Text Mining * Anwendung und Weiterentwicklung von Natural Language Processing (NLP) Methoden und Werkzeugen insb. auf Basis von Artificial Intelligence und Data Science * Fundierte Kenntnisse gängiger NLP-Werkzeuge (z.B. IBM Watson, OpenNLP, CoreNLP, NLTK, WebAnno) sowie grundlegende Data Management-Kenntnisse</t>
+  </si>
+  <si>
+    <t>Planen Sie mit uns Ihre berufliche Zukunft und unterstützen Sie uns im Fachbereich der Personen-Rückversicherung am Standort Hannover ab sofort unbefristet in Teil- oder Vollzeit (ca. 30-38 Stunden/Woche) in Vollzeit als Data Scientist (m/w/d) Prozessautomatisierung im Mortalitäts- und Morbiditätsgeschäft. Sie entwickeln Modelle und Systeme für eine Data Analytics Plattform, die innerhalb der Hannover Rück-Gruppe weltweit für die Datenanalyse im Mortalitäts- und Morbiditätsgeschäft genutzt wird, mit dem Ziel einer weitestgehenden Automatisierung von Prozessen. * der Data Analytics Systemlandschaft * Kenntnisse unterschiedlicher Data Science-Methoden</t>
+  </si>
+  <si>
+    <t>Wirtschaftsmathematiker, Data Scientist, Data Analyst oder eine vergleichbare Ausbildung mit Schwerpunkt Controlling</t>
+  </si>
+  <si>
+    <t>DB Zeitarbeit GmbH * Frankfurt (Main) * Arbeitnehmerüberlassung * Vollzeit - Als 100%ige Tochter ist die DB Zeitarbeit Dein Sprungbrett zur Deutschen Bahn. Profitiere von einem tariflich garantierten Gehaltspaket, Überstundenvergütung und attraktiven Sozial- und Nebenleistungen. Mach Deinen nächsten Schritt - und den ersten in den DB-Konzern hinein. Zum nächstmöglichen Zeitpunkt suchen wir Dich für einen Einsatz bei der DB am Standort Frankfurt (Main). * Aktive Entwicklung neuer Analyse- und Prognoseideen * Spezifizierung der Analyse- und Prognoseziele in Abstimmung mit den internen Kunden * Beschaffung, Integration und Aufbereitung der erforderlichen Datengrundlagen * Durchführung von Analysen und Prognosen z.B. auf der Basis von Markt- und Nachfragedaten, Betriebsdaten oder Anlagendaten mit dem Ziel, Muster und Zusammenhänge zu erkennen und belastbare Vorhersagen zu</t>
+  </si>
+  <si>
+    <t>Erfahrung in der Umsetzung von Datenprojekten, bspw. als Data Scientist, Machine-Learning Spezialist oder Data Engineer * Dich erwarten ein starkes Team und vielseitige Initiativen im Data Science-Umfeld, die allesamt von strategischer Relevanz sind – vom Risk Modelling über Pricing und Process Optimization bis hin zur Fraud Detection * Im Data Innovation Lab laufen alle Data Analytics Initiativen des Konzerns zusammen, weshalb Du hier methodisch und fachlich immer auf dem Laufenden bleibst und von einem großen Netzwerk profitierst * Begeisterung für und Erfahrung in der Umsetzung von Methoden aus Data Science, Künstlicher Intelligenz sowie agiler Softwareentwicklung</t>
+  </si>
+  <si>
+    <t>Ihre Aufgabenschwerpunkte liegen in den Bereichen Data Mining, Operationalisierung von analytischen Modellen und Konzeption neuer Data Science Anwendungen im gesamten Unternehmen. * Darüber hinaus bringen Sie berufliche Erfahrung im Bereich Data Science, Customer Intelligence oder Data Mining mit.</t>
+  </si>
+  <si>
+    <t>1&amp;1 * Karlsruhe * Feste Anstellung * Vollzeit - Mit über 13 Mio. DSL- und Mobilfunk-Verträgen ist 1&amp;1 einer der größten deutschen Access-Anbieter. Wir sind stark, aber trotzdem schnell. Und darum dem Markt immer einen Schritt voraus. Im Bereich „Programs, Platforms &amp; Monetization“ innerhalb des Bestandskundenmanagements sind Sie mitverantwortlich für die Neuausrichtung &amp; den Aufbau eines zentralen Geschäftsregel-Managements zur individuellen Angebotsgestaltung &amp; -Austeuerung über sämtliche Customer Journeys &amp; 1&amp;1-eigenen Touchpoints hinweg mit dem Ziel, die Weiterentwicklung des Kundenbestandes &amp; damit die kommerzielle Performance nachhaltig zu optimieren. Wir suchen Sie mit dem Schwerpunkt der Neuausrichtung des Geschäftsregel-Managements in Bezug auf personalisierte Angebots- &amp; Kontaktregel-Gestaltung.</t>
+  </si>
+  <si>
+    <t>Zur Unterstützung unseres Teams suchen wir zum nächstmöglichen Zeitpunkt Sie als Data Scientist / Data Analyst (m/w/d) für den Bereich IT * Sie konnten bereits Erfahrung als Data Scientist , Data-Analyst oder Data Engineer sammeln. * Sie arbeiten als Innovationsmanager an Themen wie Big / Smart Data, Data Analytics und Data Management.</t>
+  </si>
+  <si>
     <t>Sehr gute Kenntnisse in Python und der Anwendung von Machine-Learning-, Optimierungs- und Data Mining-Methoden</t>
   </si>
   <si>
     <t>Als Teil des Data Science Teams, entwickelst du Prognosemodelle und wendest innovative Data Mining und Machine Learning Methoden an, um datenbasierte Entscheidungen zu ermöglichen und automatisierte Prozesse voranzutreiben</t>
   </si>
   <si>
+    <t>Als Data Scientist (w/m/d) entwickelst Du innovative und datengetriebene Lösungen in unserem Big-Data- und Analytics-Umfeld. * Du konzipierst innovative Projekte in den Bereichen Data Mining, Machine Learning sowie Predictive Analytics und setzt diese um * Du setzt Data-Science-Infrastrukturen auf und wartest diese * Du unterstützt bei der Entwicklung von Big-Data-Lösungen zur statistischen Auswertung von großen Datenmengen</t>
+  </si>
+  <si>
+    <t>Berufserfahrung in der Auswahl und Anwendung von Data Science Frameworks/Toolkits (z. B. Tensorflow, SAP PAL, MATLAB, NumPy) und relevanter Programmiersprachen (z. B. Python, R) sowie Erfahrung im Einsatz von kognitiven Machine Learning Services (z. B. IBM Watson, MS Azure)</t>
+  </si>
+  <si>
+    <t>Dann suchen wir Sie zur Verstärkung unseres Europe North Sales &amp; Marketing Operations Teams als Data Scientist Europe North (m/w/d)</t>
+  </si>
+  <si>
+    <t>Datenmodellierung zur zielgerichteten Informationsgewinnung aus Big Data. * Sie verfügen über ausgeprägte analytische Fähigkeiten und bringen sehr gutes Data-Science und Statistik- Know-How mit. * Interdisziplinärer Teamgeist: In fachlich breit aufgestellten Teams setzen wir vielfältigste Projekte um – vom Mobile Workforce Management über Handyparken bis hin zu Data-Cloud-Mobilität.</t>
+  </si>
+  <si>
+    <t>Konzeptionieren, Planen, Koordinieren und Nachhalten von mittelgroßen bis großen Vorhersageprojekten auf der Basis von Machine Learning, Deep Learning, Predictive Analytics, Geo Analytics und Data Management * Unterstützen bei der Entwicklung der Gesamtorganisation hin zu einer „Data-Driven-Company“ * Mindestens fünf Jahre Berufserfahrung in der Verarbeitung und Analyse großer Datenmengen (Spark, Hadoop, etc.) und der statistischen Datenanalyse (Data Mining, Predictive Analytics und/oder Information Retrieval)</t>
+  </si>
+  <si>
+    <t>Du bist Verkehrsingenieur und / oder Data Scientist (m/w/d) mit Affinität zu Verkehrsthemen</t>
+  </si>
+  <si>
+    <t>Das Team „Data Science and Data Management“ verantwortet den gesamten Datenverarbeitungsprozess von der Datenerhebung bis hin zur Erstellung von digitalen Produkten. * leistest Du einen Beitrag in der Befähigung der Organisation, indem Du Deine spezifischen Fähigkeiten in Bezug auf das Thema „Data“ einbringst</t>
+  </si>
+  <si>
+    <t>In unserem Betrugspräventionsteam möchten wir Cyberkriminalität mithilfe von Big Data und künstlicher Intelligenz bekämpfen. Neben einem abgeschlossenen Studium im Bereich Informatik / Mathematik oder einem vergleichbaren naturwissenschaftlichen Studiengang verfügen sie über mindestens ein Jahr Berufserfahrung in einem der folgenden Gebiete: Big Data, Data Warehousing, verteilte Systeme oder Clustercomputing.</t>
+  </si>
+  <si>
+    <t>IONOS is Europe's largest hosting company, managing more than 8 million customer contracts and hosting more than 12 million domain names in our own regional data centers around the globe. As an IT company, we offer you the opportunity to use state-of-the-art technologies and develop innovative solutions based on a wide range of data volumes. In our fraud prevention team, we aim to fight cybercrime using Big Data and artificial intelligence. * You will design our future data architecture by creating functional concepts and implementing data preprocessing and its transformation from various source systems in cooperation with the Tech, BI, Finance, Customer Care &amp; Product Management divisions. * You develop and create ETL processes for complex data models &amp; algorithms. *</t>
+  </si>
+  <si>
+    <t>Zur Verstärkung unseres Teams in Berlin suchen wir ab sofort für unsere Hauptverwaltung, Abteilung Controlling &amp; Statistik, Referat Komplexe Analysen, in Voll- oder Teilzeit eine/einen Referentin/Referenten (m/w/d) Data Science * Entwicklung von Prognosemodellen mittels Data-Mining-Verfahren, wie z. B. Entscheidungsbäumen oder neuronalen Netzen, für die Geschäftsführung und die Führungsebenen der Fachabteilungen * Kenntnisse in Datenmodellierung und -vorhersage (mittels KNIME oder anderen Data Science Tools) und von Visualisierungstechniken (Dashboards, …)</t>
+  </si>
+  <si>
     <t>Im Bedarfsfall unterstützt du die Data Scientists am internationalen Hauptsitz bei der Entwicklung datengetriebener Prototypen und bringst dabei die Perspektive deiner Landesorganisation mit ein * Als Data Analytics Experte unterstützt du unsere Fachbereiche und das Top-Management bei der Entscheidungsfindung für aktuelle Themen und bei der Analyse und Aufdeckung von Verbesserungspotentialen zur Steuerung der Geschäftsprozesse * Zudem bist du verantwortlich für den weiteren Aufbau und die Weiterentwicklung des nationalen Fachbereiches Analytics und kannst zukünftige Fragestellungen rund um das Thema Analytics und „Big Data“ mit deinen Konzepten gestalten * Du wirst Teil von Lidl's globaler Analytics Community und tauschst dich mit zahlreichen Analytics- und Data Science Experten aus verschiedenen Länd</t>
   </si>
   <si>
-    <t>Zur Unterstützung unseres Teams suchen wir zum nächstmöglichen Zeitpunkt Sie als Data Scientist / Data Analyst (m/w/d) für den Bereich IT * Sie konnten bereits Erfahrung als Data Scientist , Data-Analyst oder Data Engineer sammeln. * Sie arbeiten als Innovationsmanager an Themen wie Big / Smart Data, Data Analytics und Data Management.</t>
-  </si>
-  <si>
-    <t>DB Zeitarbeit GmbH * Frankfurt (Main) * Arbeitnehmerüberlassung * Vollzeit - Als 100%ige Tochter ist die DB Zeitarbeit Dein Sprungbrett zur Deutschen Bahn. Profitiere von einem tariflich garantierten Gehaltspaket, Überstundenvergütung und attraktiven Sozial- und Nebenleistungen. Mach Deinen nächsten Schritt - und den ersten in den DB-Konzern hinein. Zum nächstmöglichen Zeitpunkt suchen wir Dich für einen Einsatz bei der DB am Standort Frankfurt (Main). * Aktive Entwicklung neuer Analyse- und Prognoseideen * Spezifizierung der Analyse- und Prognoseziele in Abstimmung mit den internen Kunden * Beschaffung, Integration und Aufbereitung der erforderlichen Datengrundlagen * Durchführung von Analysen und Prognosen z.B. auf der Basis von Markt- und Nachfragedaten, Betriebsdaten oder Anlagendaten mit dem Ziel, Muster und Zusammenhänge zu erkennen und belastbare Vorhersagen zu</t>
-  </si>
-  <si>
-    <t>Erfahrung in der Umsetzung von Datenprojekten, bspw. als Data Scientist, Machine-Learning Spezialist oder Data Engineer * Dich erwarten ein starkes Team und vielseitige Initiativen im Data Science-Umfeld, die allesamt von strategischer Relevanz sind – vom Risk Modelling über Pricing und Process Optimization bis hin zur Fraud Detection * Im Data Innovation Lab laufen alle Data Analytics Initiativen des Konzerns zusammen, weshalb Du hier methodisch und fachlich immer auf dem Laufenden bleibst und von einem großen Netzwerk profitierst * Begeisterung für und Erfahrung in der Umsetzung von Methoden aus Data Science, Künstlicher Intelligenz sowie agiler Softwareentwicklung</t>
-  </si>
-  <si>
-    <t>Als Data Scientist (w/m/d) entwickelst Du innovative und datengetriebene Lösungen in unserem Big-Data- und Analytics-Umfeld. * Du konzipierst innovative Projekte in den Bereichen Data Mining, Machine Learning sowie Predictive Analytics und setzt diese um * Du setzt Data-Science-Infrastrukturen auf und wartest diese * Du unterstützt bei der Entwicklung von Big-Data-Lösungen zur statistischen Auswertung von großen Datenmengen</t>
-  </si>
-  <si>
-    <t>Wirtschaftsmathematiker, Data Scientist, Data Analyst oder eine vergleichbare Ausbildung mit Schwerpunkt Controlling</t>
-  </si>
-  <si>
-    <t>Ihre Aufgabenschwerpunkte liegen in den Bereichen Data Mining, Operationalisierung von analytischen Modellen und Konzeption neuer Data Science Anwendungen im gesamten Unternehmen. * Darüber hinaus bringen Sie berufliche Erfahrung im Bereich Data Science, Customer Intelligence oder Data Mining mit.</t>
-  </si>
-  <si>
-    <t>Berufserfahrung in der Auswahl und Anwendung von Data Science Frameworks/Toolkits (z. B. Tensorflow, SAP PAL, MATLAB, NumPy) und relevanter Programmiersprachen (z. B. Python, R) sowie Erfahrung im Einsatz von kognitiven Machine Learning Services (z. B. IBM Watson, MS Azure)</t>
-  </si>
-  <si>
-    <t>Zur Verstärkung unseres Teams in Berlin suchen wir ab sofort für unsere Hauptverwaltung, Abteilung Controlling &amp; Statistik, Referat Komplexe Analysen, in Voll- oder Teilzeit eine/einen Referentin/Referenten (m/w/d) Data Science * Entwicklung von Prognosemodellen mittels Data-Mining-Verfahren, wie z. B. Entscheidungsbäumen oder neuronalen Netzen, für die Geschäftsführung und die Führungsebenen der Fachabteilungen * Kenntnisse in Datenmodellierung und -vorhersage (mittels KNIME oder anderen Data Science Tools) und von Visualisierungstechniken (Dashboards, …)</t>
-  </si>
-  <si>
-    <t>Datenmodellierung zur zielgerichteten Informationsgewinnung aus Big Data. * Sie verfügen über ausgeprägte analytische Fähigkeiten und bringen sehr gutes Data-Science und Statistik- Know-How mit. * Interdisziplinärer Teamgeist: In fachlich breit aufgestellten Teams setzen wir vielfältigste Projekte um – vom Mobile Workforce Management über Handyparken bis hin zu Data-Cloud-Mobilität.</t>
-  </si>
-  <si>
-    <t>Konzeptionieren, Planen, Koordinieren und Nachhalten von mittelgroßen bis großen Vorhersageprojekten auf der Basis von Machine Learning, Deep Learning, Predictive Analytics, Geo Analytics und Data Management * Unterstützen bei der Entwicklung der Gesamtorganisation hin zu einer „Data-Driven-Company“ * Mindestens fünf Jahre Berufserfahrung in der Verarbeitung und Analyse großer Datenmengen (Spark, Hadoop, etc.) und der statistischen Datenanalyse (Data Mining, Predictive Analytics und/oder Information Retrieval)</t>
-  </si>
-  <si>
-    <t>Du bist Verkehrsingenieur und / oder Data Scientist (m/w/d) mit Affinität zu Verkehrsthemen</t>
-  </si>
-  <si>
-    <t>Das Team „Data Science and Data Management“ verantwortet den gesamten Datenverarbeitungsprozess von der Datenerhebung bis hin zur Erstellung von digitalen Produkten. * leistest Du einen Beitrag in der Befähigung der Organisation, indem Du Deine spezifischen Fähigkeiten in Bezug auf das Thema „Data“ einbringst</t>
-  </si>
-  <si>
-    <t>In unserem Betrugspräventionsteam möchten wir Cyberkriminalität mithilfe von Big Data und künstlicher Intelligenz bekämpfen. Neben einem abgeschlossenen Studium im Bereich Informatik / Mathematik oder einem vergleichbaren naturwissenschaftlichen Studiengang verfügen sie über mindestens ein Jahr Berufserfahrung in einem der folgenden Gebiete: Big Data, Data Warehousing, verteilte Systeme oder Clustercomputing.</t>
-  </si>
-  <si>
-    <t>IONOS is Europe's largest hosting company, managing more than 8 million customer contracts and hosting more than 12 million domain names in our own regional data centers around the globe. As an IT company, we offer you the opportunity to use state-of-the-art technologies and develop innovative solutions based on a wide range of data volumes. In our fraud prevention team, we aim to fight cybercrime using Big Data and artificial intelligence. * You will design our future data architecture by creating functional concepts and implementing data preprocessing and its transformation from various source systems in cooperation with the Tech, BI, Finance, Customer Care &amp; Product Management divisions. * You develop and create ETL processes for complex data models &amp; algorithms. *</t>
-  </si>
-  <si>
-    <t>As a (Senior) Data Scientist (f/m/d) at RISK IDENT, you will take responsibility to develop new analytical product features and data services, jump into real fraud discovery data projects, enhance our statistical modeling, and take care of sensitive customer projects, occasionally taking place on-site. We are looking for a passionate (Senior) Data Scientist (f/m/d) to join our Analytics team. The Analytics team consists of data scientists in order to bridge seamlessly between advanced analytics and Scrum-based product development. In this never-ending race, we are fighting the bad guys with state-of-the-art technology and with powerful data analytics. At RISK IDENT, we fight fraudsters by analysing data collections viewed as time-evolving networks tha</t>
+    <t>Als Data Analyst / Data Scientist bist Du für die Implementierung kausaler Modelle für eine datengetriebene Planungsprognose verantwortlich - Du bist Teil des Bereichs Data Analytics und für den umfassenden Auf- und Ausbau der Abteilung Data Science mitverantwortlich. * Dein erfolgreich abgeschlossenes Master-Studium im Bereich Data Analytics, Statistik, Wirtschaftsinformatik oder ein vergleichbarer Studiengang, dient als fundierte Wissensbasis * Eine große Leidenschaft für neue Technologien und digitale Trends im Marketingumfeld von Big Data und Advanced Analytics zeichnet Dich aus</t>
+  </si>
+  <si>
+    <t>Als Data Scientist (m/w/d) docmetric gestalten Sie heute schon mit, was die Zukunft bringt! * Als Data-Scientist (m/w/d) sind Sie für die Identifikation von Datenquellen und die Aufbereitung der Daten (ETL) mit Python und R zuständig</t>
+  </si>
+  <si>
+    <t>We consult and advise our worldwide entities on modelling, methods, and how to make best use of their data. * Yes, truth be told, sometimes also a lot of tedious data collection and data preparation before the actual modelling starts * A steep learning curve and lots of exposure to actuarial and data science methods</t>
+  </si>
+  <si>
+    <t>Data Scientist (m/w/d) * Venture Teams im weiteren Geschäftsmodellaufbau als verantwortlicher Data Scientist unterstützen * Sehr gute Python-Programmierkenntnisse (insb. hinsichtlich Software-Engineering) und sicherer Umgang mit Standard-Bibliotheken des Python Data Science Tool Stacks (Numpy, Pandas, Scikit-Learn, Tensorflow, …)</t>
+  </si>
+  <si>
+    <t>rpc – The Retail Performance Company ist das Beratungsunternehmen für den gesamten Weg zu einer kundenorientierten Transformation: von der Strategie, über Customer Experience Design, Data Analytics bis hin zu Qualification und Coaching. * Beratung unserer Kunden zu Advanced Analytics Use Cases und der Identifikation von Data Assets * Konzeption und Umsetzung von innovativen Data Science-Lösungen zur Realisierung eines fachlichen und ökomischen Mehrwerts für unsere Kunden im Automotive-Sektor und darüber hinaus * Begleitung der prozessualen und organisatorischen Verankerung von Data Analytics-Lösungen bei unseren Kunden * Erste praktische Erfahrung in der Anwendung von Data Science-Lösungen z.B. im Marketing- oder CRM-Umfeld (gerne auch aus Marktforschungsunternehmen) * Beherrschen von</t>
+  </si>
+  <si>
+    <t>As a data scientist, you will enable Philips and its customers to make the most out of their data. We are currently eager to touch the lives of people around the world by addressing challenging, unmet needs in healthcare by means of innovative methods in data analytics. You will analyze diverse data sources with a broad range of tools and methods. * Drive the full data analytics stack: data exploration, preparation, ETL, modelling, visualization * Contribute to the field of data science, present your work at conferences and in journals and transfer research results into practical solutions * Proven capabilities in data handling, processing and visualization * Knowledge in data modeling, databases, SQL</t>
+  </si>
+  <si>
+    <t>Wir suchen für unseren Bereich Anlagensicherheit, Abteilung Sicherheitsanalysen am Standort Garching einen Research Data Scientist / Research Data Analyst (m/w/d). * Hochschulabschluss in Computer Science, Mathematik, Statistik, Physik oder einem vergleichbaren Fach mit Fokus auf Computational Statistics, Data Science, Data Analysis oder maschinellem Lernen * Erfahrung mit den Methoden und Werkzeugen im Bereich Data Science und des maschinellen Lernens, v. a.: sklearn, pandas, SQLAlchemy etc.</t>
+  </si>
+  <si>
+    <t>Data Scientist/Analyst (w/m/d) im Bereich prüfungsnahe - Assurance (Financial Services)</t>
+  </si>
+  <si>
+    <t>Sicherer Umgang mit Data Mining Tools, Programmiersprachen (Python, R) und Datenbanken</t>
+  </si>
+  <si>
+    <t>The Applied ML, Data- and Software Engineering team is one part of the BCAI with the mission to incubate, engineer and roll out AI solutions to Bosch. We work closely with domain experts on real-world applications to transform Bosch into a data-driven company. * You will translate business needs into technical solutions and develop advanced machine learning models for the analysis of large-scale and high-dimensional data. You will be responsible for the modelling process from raw data to deployment ready model for production.</t>
+  </si>
+  <si>
+    <t>Zur Mustererkennung, Prognose und Simulation extrahierst, analysierst und validierst du eigenständig (un-)strukturierte interne und externe Datenbestände im Big Data / Data Lake mithilfe von geeigneten mathematischen Verfahren * im Rahmen des Umzuges auf die Google Cloud gestaltest du in Zusammenarbeit mit dem Data-Team die Reporting Architekturen mit * du wirkst an vielseitigen BI-Projekten im E-Commerce und Vertriebsumfeld mit und hast die Möglichkeit aktiv unsere Data Science Abteilung mit zu gestalten</t>
   </si>
   <si>
     <t>Berlin, 25 bis 40 Stunden pro Woche nach Wahl.EISIG ist ein junges, schnell expandierendes Softwareunternehmen mit Hauptsitz in Berlin.</t>
   </si>
   <si>
-    <t>Knowledge of analytics and data science domains, including statistics and data analysis.Algorithm development and data visualisation.</t>
-  </si>
-  <si>
-    <t>Dann suchen wir Sie zur Verstärkung unseres Europe North Sales &amp; Marketing Operations Teams als Data Scientist Europe North (m/w/d)</t>
-  </si>
-  <si>
-    <t>Planen Sie mit uns Ihre berufliche Zukunft und unterstützen Sie uns im Fachbereich der Personen-Rückversicherung am Standort Hannover ab sofort unbefristet in Teil- oder Vollzeit (ca. 30-38 Stunden/Woche) in Vollzeit als Data Scientist (m/w/d) Prozessautomatisierung im Mortalitäts- und Morbiditätsgeschäft. Sie entwickeln Modelle und Systeme für eine Data Analytics Plattform, die innerhalb der Hannover Rück-Gruppe weltweit für die Datenanalyse im Mortalitäts- und Morbiditätsgeschäft genutzt wird, mit dem Ziel einer weitestgehenden Automatisierung von Prozessen. * der Data Analytics Systemlandschaft * Kenntnisse unterschiedlicher Data Science-Methoden</t>
-  </si>
-  <si>
-    <t>Erfahrung im Bereich Data Science, Statistik, Machine Learning und Mustererkennung</t>
-  </si>
-  <si>
-    <t>Als Data Scientist unterstützt du unsere Fachbereiche und das Top-Management bei der Entscheidungsfindung für aktuelle Themen und bei der Analyse und Aufdeckung von Verbesserungspotentialen zur Steuerung der Geschäftsprozesse * Im Bedarfsfall unterstützt du die Data Scientists am internationalen Hauptsitz bei der Entwicklung datengetriebener Prototypen und bringst dabei die Perspektive deiner Landesorganisation mit ein * Du wirst Teil von Lidl's globaler Analytics Community und tauschst dich mit zahlreichen Analytics- und Data Science Experten aus verschiedenen Ländern aus * Berufserfahrung in der Anwendung von Data Analytics, Data Science oder Data Mining sowie Erfahrung mit Regressions- oder Zeitreihenanalysen bzw. Wirksamkeitstests (A-/B- sowie Hypothesentests) sow</t>
-  </si>
-  <si>
-    <t>An unseren Standorten in Berlin, Hoppegarten, Dortmund und Hilden bieten wir Dir ab sofort die Chance als Data Scientist (w/m/d). Unser Ziel ist dabei nichts Geringeres als mit Dir den Bereich Data Science aufzubauen und weiter an unserer digitalen Erfolgsstory zu schreiben. * Als erfahrener Analyst treibst Du den Aufbau des Bereichs Data Science in unserer Einheit maßgeblich voran. * Du hast einen guten Studienabschluss im Bereich Data Science, Mathematik / Statistik, Informatik oder eine vergleichbare Qualifikation mit Fokus auf Datenmodellierung.</t>
-  </si>
-  <si>
-    <t>We consult and advise on modelling, methods, how to make best use of data. * Analyze data and apply predictive modelling, in particular for claims behavior * Also spend time on data preparation beforehand, detecting data errors and finding and adjusting for missing data (actual data doesn't look like academic data) * A steep learning curve and lots of exposure to actuarial and data science methods</t>
-  </si>
-  <si>
-    <t>Analysis of complex data, data preparation and development of prognostic models based on modern statistical methods * Advancement of our innovative services through use of modern technologies in data analytics and Big Data * Consolidation of data and analyses results as well as creation of appropriate visualization to conclude recommendations for action * Good background in using Big Data technologies such as Apache Hadoop Framework (Hive, Impala, Spark, Pig) and/or AWS (Amazon Web Services) * Extensive experience in the area of data modelling and data visualization</t>
-  </si>
-  <si>
-    <t>Erfahrung im Bereich im Bereich Data Science insbesondere in der Anwendung künstlicher neuronaler Netze</t>
-  </si>
-  <si>
-    <t>The Applied ML, Data- and Software Engineering team is one part of the BCAI with the mission to incubate, engineer and roll out AI solutions to Bosch. We work closely with domain experts on real-world applications to transform Bosch into a data-driven company. * You will translate business needs into technical solutions and develop advanced deep learning (DL) models for data (e.g. images, time series measurements, etc.) from different domains such as manufacturing. Take responsibility for the modelling process from raw data to deployment ready model for production. * Be part of the team and collaborate with domain experts and engineering teams to execute challenging data science projects. * Experience and Knowledge: PhD or Master with several years of professional experience, proficie</t>
-  </si>
-  <si>
-    <t>Werden Sie ein Teil des Teams und bewerben sich als Data Analyst (m/w/d) - Data Scientist im Raum Köln. * Einschlägige Berufserfahrung im Bereich Data Analyse / Data Science, sehr gute Kenntnisse in der Programmierung (Java, Python, R) sowie Erfahrung mit Visualisierungstools (Power BI, Tableau)</t>
-  </si>
-  <si>
-    <t>The Applied ML, Data- and Software Engineering team is one part of the BCAI with the mission to incubate, engineer and roll out AI solutions to Bosch. We work closely with domain experts on real-world applications to transform Bosch into a data-driven company. * You will translate business needs into technical solutions and develop advanced machine learning models for the analysis of large-scale and high-dimensional data. You will be responsible for the modelling process from raw data to deployment ready model for production.</t>
-  </si>
-  <si>
-    <t>Sicherer Umgang mit Data Mining Tools, Programmiersprachen (Python, R) und Datenbanken</t>
-  </si>
-  <si>
-    <t>Wir suchen für unseren Bereich Anlagensicherheit, Abteilung Sicherheitsanalysen am Standort Garching einen Research Data Scientist / Research Data Analyst (m/w/d). * Hochschulabschluss in Computer Science, Mathematik, Statistik, Physik oder einem vergleichbaren Fach mit Fokus auf Computational Statistics, Data Science, Data Analysis oder maschinellem Lernen * Erfahrung mit den Methoden und Werkzeugen im Bereich Data Science und des maschinellen Lernens, v. a.: sklearn, pandas, SQLAlchemy etc.</t>
-  </si>
-  <si>
-    <t>Data Scientist/Analyst (w/m/d) im Bereich prüfungsnahe - Assurance (Financial Services)</t>
-  </si>
-  <si>
-    <t>Data Scientist (m/w/d) * Venture Teams im weiteren Geschäftsmodellaufbau als verantwortlicher Data Scientist unterstützen * Sehr gute Python-Programmierkenntnisse (insb. hinsichtlich Software-Engineering) und sicherer Umgang mit Standard-Bibliotheken des Python Data Science Tool Stacks (Numpy, Pandas, Scikit-Learn, Tensorflow, …)</t>
-  </si>
-  <si>
-    <t>rpc – The Retail Performance Company ist das Beratungsunternehmen für den gesamten Weg zu einer kundenorientierten Transformation: von der Strategie, über Customer Experience Design, Data Analytics bis hin zu Qualification und Coaching. * Beratung unserer Kunden zu Advanced Analytics Use Cases und der Identifikation von Data Assets * Konzeption und Umsetzung von innovativen Data Science-Lösungen zur Realisierung eines fachlichen und ökomischen Mehrwerts für unsere Kunden im Automotive-Sektor und darüber hinaus * Begleitung der prozessualen und organisatorischen Verankerung von Data Analytics-Lösungen bei unseren Kunden * Erste praktische Erfahrung in der Anwendung von Data Science-Lösungen z.B. im Marketing- oder CRM-Umfeld (gerne auch aus Marktforschungsunternehmen) * Beherrschen von</t>
-  </si>
-  <si>
-    <t>Zur Mustererkennung, Prognose und Simulation extrahierst, analysierst und validierst du eigenständig (un-)strukturierte interne und externe Datenbestände im Big Data / Data Lake mithilfe von geeigneten mathematischen Verfahren * im Rahmen des Umzuges auf die Google Cloud gestaltest du in Zusammenarbeit mit dem Data-Team die Reporting Architekturen mit * du wirkst an vielseitigen BI-Projekten im E-Commerce und Vertriebsumfeld mit und hast die Möglichkeit aktiv unsere Data Science Abteilung mit zu gestalten</t>
-  </si>
-  <si>
-    <t>We consult and advise our worldwide entities on modelling, methods, and how to make best use of their data. * Yes, truth be told, sometimes also a lot of tedious data collection and data preparation before the actual modelling starts * A steep learning curve and lots of exposure to actuarial and data science methods</t>
-  </si>
-  <si>
-    <t>Als Data Analyst / Data Scientist bist Du für die Implementierung kausaler Modelle für eine datengetriebene Planungsprognose verantwortlich - Du bist Teil des Bereichs Data Analytics und für den umfassenden Auf- und Ausbau der Abteilung Data Science mitverantwortlich. * Dein erfolgreich abgeschlossenes Master-Studium im Bereich Data Analytics, Statistik, Wirtschaftsinformatik oder ein vergleichbarer Studiengang, dient als fundierte Wissensbasis * Eine große Leidenschaft für neue Technologien und digitale Trends im Marketingumfeld von Big Data und Advanced Analytics zeichnet Dich aus</t>
-  </si>
-  <si>
-    <t>1&amp;1 * Karlsruhe * Feste Anstellung * Vollzeit - Mit über 13 Mio. DSL- und Mobilfunk-Verträgen ist 1&amp;1 einer der größten deutschen Access-Anbieter. Wir sind stark, aber trotzdem schnell. Und darum dem Markt immer einen Schritt voraus. Im Bereich „Programs, Platforms &amp; Monetization“ innerhalb des Bestandskundenmanagements sind Sie mitverantwortlich für die Neuausrichtung &amp; den Aufbau eines zentralen Geschäftsregel-Managements zur individuellen Angebotsgestaltung &amp; -Austeuerung über sämtliche Customer Journeys &amp; 1&amp;1-eigenen Touchpoints hinweg mit dem Ziel, die Weiterentwicklung des Kundenbestandes &amp; damit die kommerzielle Performance nachhaltig zu optimieren. Wir suchen Sie mit dem Schwerpunkt der Neuausrichtung des Geschäftsregel-Managements in Bezug auf personalisierte Angebots- &amp; Kontaktregel-Gestaltung.</t>
-  </si>
-  <si>
-    <t>Als Data Scientist (m/w/d) docmetric gestalten Sie heute schon mit, was die Zukunft bringt! * Als Data-Scientist (m/w/d) sind Sie für die Identifikation von Datenquellen und die Aufbereitung der Daten (ETL) mit Python und R zuständig</t>
-  </si>
-  <si>
-    <t>Erste Berufserfahrung als Data Scientist * Erfahrung in den Bereichen Big Data und Advanced Analytics, Data Mining, R, SAS sowie in der Programmierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definition und Design zielgerichteter Reports und Dashboards über das vorhandene Business Intelligence System (Microstrategy) basierend auf den Geschäftsanforderungen aller Unternehmensfunktionen (Finance, Sales, Marketing, Medizin, Pricing &amp; Market Access) sowie den globalen Data Insights Funktionen und kontinuierliche Weiterentwicklung und Optimierung * Identifizierung und Konsolidierung von Data &amp; Analytics Initiativen, Möglichkeiten &amp; Anforderungen gemeinsam mit den lokalen und globalen Data &amp; Analytics Funktionen, Finance, Sales, Marketing, Pricing &amp; Market Access u.a * Abgeschlossenes Studium zum Beispiel der Mathematik/Statistik, Operations Research, (Wirtschafts-)Informatik, Gesundheitsökonomie, Betriebswirtschaft, Data Science oder vergleichbare langjährige Berufserfahrung * Expertise in </t>
-  </si>
-  <si>
-    <t>Hannover Rück SE * Hannover * Feste Anstellung * Vollzeit Standort Karte anzeigen Mitarbeitervorteile Vorsorgeuntersuchungen Betriebliche Altersvorsorge Flexible Arbeitszeiten Firmenevents Parkplatz Mitarbeiterrabatte Kantine Essenszulage Firmenhandy Kinderbetreuung Betriebsarzt Coaching Homeoffice Barrierefreiheit Gute Verkehrsanbindung Zeig 12 mehr mitarbeitervorteile Die abgebildeten Mitarbeitervorteile sind unternehmensabhängig und können je nach Position und Abteilung abweichen. Zeige weniger</t>
-  </si>
-  <si>
-    <t>Dabei setzen Sie sowohl konventionelle quantitative als auch innovative Machine Learning und Big Data Methoden ein. * Akkreditierter Master- oder gleichwertiger Studienabschluss der Datenwissenschaften (Data Science), Informatik, Wirtschaftswissenschaften oder vergleichbarer Abschluss mit überdurchschnittlichem Ergebnis * Kenntnisse in der Datenverarbeitung (z. B. Datenbanken, Data Lakes) und Visualisierung mit Analytics Tools (z. B. Tableau, Power BI, R Shiny)</t>
-  </si>
-  <si>
-    <t>Zielgerichtete Informationsgewinnung aus Text- und Sprachdaten mittels Data Mining und Text Mining * Anwendung und Weiterentwicklung von Natural Language Processing (NLP) Methoden und Werkzeugen insb. auf Basis von Artificial Intelligence und Data Science * Fundierte Kenntnisse gängiger NLP-Werkzeuge (z.B. IBM Watson, OpenNLP, CoreNLP, NLTK, WebAnno) sowie grundlegende Data Management-Kenntnisse</t>
-  </si>
-  <si>
-    <t>You as the Data Scientist will complete the TOMRA Sorting Digital Core Team. * Guiding the data science team covering the operational data analytics based on domain knowhow, supporting troubleshooting and validating correlations, and supporting the R&amp;D team with a focus on data science and development of algorithms * Generating new valuable insights based on the collected data in motion and at rest, as well as unstructured external data sources across all TOMRA Sorting Business Streams * Establishing and managing the “TOMRA Space Center”, monitoring and running all data analytics services of TOMRA Insight * Becoming an active thought leader and internal advisor for data science in the respective industries in which TOMRA is active (Fo</t>
+    <t>Identify and specify data needs and quality requirements to support modelling, helping our data engineers to enrich the central data solutions.</t>
   </si>
   <si>
     <t>Experience in visualizing complex data, incl. knowledge of data visualization tools (e.g., Tableau), or experience applying GIS tools is an asset.</t>
@@ -1630,6 +1672,9 @@
     <t>Der Moment der Kaufentscheidung ist seit über 20 Jahren der Mittelpunkt unseres Denkens und Handelns.Messen und analysieren das Kaufentscheidungsverhalten der…</t>
   </si>
   <si>
+    <t>You develop custom data models and algorithms to apply to data sets.You determine the effectiveness and certainty of new data sources and data gathering…</t>
+  </si>
+  <si>
     <t>indeed</t>
   </si>
   <si>
@@ -1681,37 +1726,37 @@
     <t>https://de.indeed.com/jobs?q=data+scientist&amp;l=germany&amp;sort=date&amp;start=50</t>
   </si>
   <si>
+    <t>https://www.stepstone.de/5/ergebnisliste.html?stf=freeText&amp;ns=1&amp;companyid=0&amp;sourceofthesearchfield=resultlistpage%3Ageneral&amp;qs=[]&amp;cityid=0&amp;ke=data%20scientist&amp;ws=germany&amp;radius=30&amp;suid=e4f10731-b7c4-4e30-a419-08dcd96f8eed&amp;ob=date&amp;of=75</t>
+  </si>
+  <si>
+    <t>https://de.indeed.com/jobs?q=data+scientist&amp;l=germany&amp;sort=date&amp;start=70</t>
+  </si>
+  <si>
     <t>https://de.indeed.com/jobs?q=data+scientist&amp;l=germany&amp;sort=date&amp;start=60</t>
   </si>
   <si>
-    <t>https://www.stepstone.de/5/ergebnisliste.html?stf=freeText&amp;ns=1&amp;companyid=0&amp;sourceofthesearchfield=resultlistpage%3Ageneral&amp;qs=[]&amp;cityid=0&amp;ke=data%20scientist&amp;ws=germany&amp;radius=30&amp;suid=e4f10731-b7c4-4e30-a419-08dcd96f8eed&amp;ob=date&amp;of=75</t>
-  </si>
-  <si>
-    <t>https://de.indeed.com/jobs?q=data+scientist&amp;l=germany&amp;sort=date&amp;start=70</t>
+    <t>https://de.indeed.com/jobs?q=data+scientist&amp;l=germany&amp;sort=date&amp;start=80</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/jobs?d=20&amp;l=germany&amp;q=data+scientist&amp;u=Km&amp;pg=1</t>
   </si>
   <si>
     <t>https://stackoverflow.com/jobs?d=20&amp;l=germany&amp;q=data+scientist&amp;u=Km&amp;pg=0</t>
   </si>
   <si>
-    <t>https://stackoverflow.com/jobs?d=20&amp;l=germany&amp;q=data+scientist&amp;u=Km&amp;pg=1</t>
-  </si>
-  <si>
-    <t>https://de.indeed.com/jobs?q=data+scientist&amp;l=germany&amp;sort=date&amp;start=80</t>
-  </si>
-  <si>
     <t>https://de.indeed.com/jobs?q=data+scientist&amp;l=germany&amp;sort=date&amp;start=90</t>
   </si>
   <si>
+    <t>https://www.stepstone.de/5/ergebnisliste.html?stf=freeText&amp;ns=1&amp;companyid=0&amp;sourceofthesearchfield=resultlistpage%3Ageneral&amp;qs=[]&amp;cityid=0&amp;ke=data%20scientist&amp;ws=germany&amp;radius=30&amp;suid=e4f10731-b7c4-4e30-a419-08dcd96f8eed&amp;ob=date&amp;of=175</t>
+  </si>
+  <si>
     <t>https://www.stepstone.de/5/ergebnisliste.html?stf=freeText&amp;ns=1&amp;companyid=0&amp;sourceofthesearchfield=resultlistpage%3Ageneral&amp;qs=[]&amp;cityid=0&amp;ke=data%20scientist&amp;ws=germany&amp;radius=30&amp;suid=e4f10731-b7c4-4e30-a419-08dcd96f8eed&amp;ob=date&amp;of=125</t>
   </si>
   <si>
+    <t>https://www.stepstone.de/5/ergebnisliste.html?stf=freeText&amp;ns=1&amp;companyid=0&amp;sourceofthesearchfield=resultlistpage%3Ageneral&amp;qs=[]&amp;cityid=0&amp;ke=data%20scientist&amp;ws=germany&amp;radius=30&amp;suid=e4f10731-b7c4-4e30-a419-08dcd96f8eed&amp;ob=date&amp;of=150</t>
+  </si>
+  <si>
     <t>https://www.stepstone.de/5/ergebnisliste.html?stf=freeText&amp;ns=1&amp;companyid=0&amp;sourceofthesearchfield=resultlistpage%3Ageneral&amp;qs=[]&amp;cityid=0&amp;ke=data%20scientist&amp;ws=germany&amp;radius=30&amp;suid=e4f10731-b7c4-4e30-a419-08dcd96f8eed&amp;ob=date&amp;of=100</t>
-  </si>
-  <si>
-    <t>https://www.stepstone.de/5/ergebnisliste.html?stf=freeText&amp;ns=1&amp;companyid=0&amp;sourceofthesearchfield=resultlistpage%3Ageneral&amp;qs=[]&amp;cityid=0&amp;ke=data%20scientist&amp;ws=germany&amp;radius=30&amp;suid=e4f10731-b7c4-4e30-a419-08dcd96f8eed&amp;ob=date&amp;of=175</t>
-  </si>
-  <si>
-    <t>https://www.stepstone.de/5/ergebnisliste.html?stf=freeText&amp;ns=1&amp;companyid=0&amp;sourceofthesearchfield=resultlistpage%3Ageneral&amp;qs=[]&amp;cityid=0&amp;ke=data%20scientist&amp;ws=germany&amp;radius=30&amp;suid=e4f10731-b7c4-4e30-a419-08dcd96f8eed&amp;ob=date&amp;of=150</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2116,19 +2161,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2136,22 +2184,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2159,82 +2204,79 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>376</v>
+        <v>0.04</v>
       </c>
       <c r="F4" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F6" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2242,39 +2284,39 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D9">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2282,222 +2324,222 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D10">
-        <v>0.21</v>
+        <v>0.29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D11">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="F11" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D12">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="F12" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>377</v>
+        <v>0.42</v>
       </c>
       <c r="F13" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D14">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="F14" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D15">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="F15" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D16">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="F16" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D17">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="F17" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D18">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="F18" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D19">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="F19" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D20">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="F20" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2505,39 +2547,39 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D21">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="F21" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D22">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="F22" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2545,389 +2587,392 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D23">
-        <v>0.38</v>
+        <v>0.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>389</v>
       </c>
       <c r="F23" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D24">
-        <v>0.38</v>
+        <v>0.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>390</v>
       </c>
       <c r="F24" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D25">
-        <v>0.38</v>
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>391</v>
       </c>
       <c r="F25" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D26">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D27">
         <v>0.5</v>
       </c>
+      <c r="E27" t="s">
+        <v>393</v>
+      </c>
       <c r="F27" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D28">
         <v>0.5</v>
       </c>
       <c r="E28" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="F28" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D29">
         <v>0.5</v>
       </c>
+      <c r="E29" t="s">
+        <v>395</v>
+      </c>
       <c r="F29" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D30">
         <v>0.5</v>
       </c>
       <c r="E30" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" t="s">
-        <v>310</v>
+        <v>161</v>
       </c>
       <c r="D31">
         <v>0.5</v>
       </c>
       <c r="E31" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="F31" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D32">
         <v>0.5</v>
       </c>
       <c r="E32" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F32" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
       </c>
       <c r="D33">
         <v>0.5</v>
       </c>
       <c r="E33" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="F33" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D34">
         <v>0.5</v>
       </c>
       <c r="E34" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="F34" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>385</v>
+        <v>0.54</v>
       </c>
       <c r="F35" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>386</v>
+        <v>0.54</v>
       </c>
       <c r="F36" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="F37" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>387</v>
+        <v>0.54</v>
       </c>
       <c r="F38" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="F39" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D40">
-        <v>0.5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>388</v>
+        <v>0.58</v>
       </c>
       <c r="F40" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2935,102 +2980,99 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>389</v>
+        <v>0.58</v>
       </c>
       <c r="F41" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D42">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="F42" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D43">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="F43" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D44">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="F44" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D45">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="F45" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3038,102 +3080,105 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D46">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="F46" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D47">
-        <v>0.58</v>
+        <v>0.75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>401</v>
       </c>
       <c r="F47" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D48">
-        <v>0.58</v>
+        <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="D49">
-        <v>0.58</v>
+        <v>0.79</v>
+      </c>
+      <c r="E49" t="s">
+        <v>402</v>
       </c>
       <c r="F49" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D50">
-        <v>0.71</v>
-      </c>
-      <c r="E50" t="s">
-        <v>390</v>
+        <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3141,19 +3186,19 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D51">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3161,1811 +3206,1817 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D52">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D53">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F53" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D54">
-        <v>0.75</v>
-      </c>
-      <c r="E54" t="s">
-        <v>391</v>
+        <v>0.83</v>
       </c>
       <c r="F54" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D55">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F55" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D56">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="F56" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="D57">
-        <v>0.79</v>
+        <v>0.88</v>
+      </c>
+      <c r="E57" t="s">
+        <v>403</v>
       </c>
       <c r="F57" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="D58">
-        <v>0.79</v>
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>404</v>
       </c>
       <c r="F58" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D59">
-        <v>0.79</v>
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>405</v>
       </c>
       <c r="F59" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D60">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F60" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F61" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F62" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F63" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="F64" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
+        <v>326</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F65" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F66" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="F67" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>181</v>
+      </c>
+      <c r="C68" t="s">
+        <v>329</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="F68" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" t="s">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="F69" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F70" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F71" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="F72" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F73" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F74" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="F75" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="F76" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F77" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="F79" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D80">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F80" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F81" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F82" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F83" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>321</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F84" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
-      </c>
-      <c r="C85" t="s">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="D85">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F85" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="F86" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="F87" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="F88" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F89" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="F90" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="F91" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="F92" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="D93">
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="F93" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D94">
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F94" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="F95" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="F96" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="F97" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C98" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D98">
         <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="F98" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C99" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D99">
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="F99" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D100">
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="F100" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D101">
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="F101" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="D102">
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F102" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D103">
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="F103" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="F104" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F105" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C106" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D106">
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="F106" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D107">
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="F107" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>326</v>
       </c>
       <c r="D108">
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="F108" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D109">
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="F109" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D110">
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="F110" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="D111">
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="F111" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F112" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="F113" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>214</v>
+        <v>221</v>
+      </c>
+      <c r="C114" t="s">
+        <v>336</v>
       </c>
       <c r="D114">
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F114" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D115">
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="F115" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>223</v>
+      </c>
+      <c r="C116" t="s">
+        <v>317</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="F116" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="F117" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="F118" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B119" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C119" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F119" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C120" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F120" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D121">
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="F121" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="C122" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D122">
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F122" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C123" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="D123">
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="F123" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
-      </c>
-      <c r="C124" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="D124">
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="F124" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" t="s">
-        <v>224</v>
-      </c>
-      <c r="C125" t="s">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="D125">
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="F125" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D126">
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="F126" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C127" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="D127">
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F127" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="B128" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" t="s">
+        <v>326</v>
       </c>
       <c r="D128">
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F128" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C129" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129">
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="F129" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B130" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D130">
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="F130" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C131" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="D131">
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F131" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D132">
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="F132" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4973,226 +5024,223 @@
         <v>79</v>
       </c>
       <c r="B133" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C133" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D133">
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="F133" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="C134" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D134">
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="F134" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B135" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C135" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="D135">
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F135" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B136" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="C136" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D136">
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="F136" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
-      </c>
-      <c r="C137" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="D137">
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="F137" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="C138" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="D138">
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F138" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C139" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="D139">
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F139" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C140" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="D140">
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="F140" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C141" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="F141" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="D142">
         <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5200,145 +5248,139 @@
         <v>30</v>
       </c>
       <c r="B143" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C143" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D143">
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C144" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="D144">
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C145" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D145">
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>85</v>
-      </c>
-      <c r="B146" t="s">
-        <v>238</v>
-      </c>
-      <c r="C146" t="s">
-        <v>328</v>
+        <v>87</v>
       </c>
       <c r="D146">
         <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F146" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>86</v>
-      </c>
-      <c r="B147" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="D147">
         <v>6</v>
       </c>
       <c r="E147" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F147" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>244</v>
+      </c>
+      <c r="C148" t="s">
+        <v>355</v>
       </c>
       <c r="D148">
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="F148" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="D149">
         <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F149" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5346,68 +5388,68 @@
         <v>89</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C150" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="D150">
         <v>6</v>
       </c>
       <c r="E150" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="F150" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D151">
         <v>6</v>
       </c>
       <c r="E151" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="F151" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B152" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="D152">
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="F152" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5415,1836 +5457,1928 @@
         <v>91</v>
       </c>
       <c r="B153" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C153" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D153">
         <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F153" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C154" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D154">
         <v>6</v>
       </c>
       <c r="E154" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F154" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C155" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D155">
         <v>6</v>
       </c>
       <c r="E155" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="F155" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>246</v>
-      </c>
-      <c r="C156" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="D156">
         <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F156" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="B157" t="s">
+        <v>252</v>
       </c>
       <c r="D157">
         <v>6</v>
       </c>
       <c r="E157" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F157" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D158">
         <v>6</v>
       </c>
       <c r="E158" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F158" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="D159">
         <v>6</v>
       </c>
       <c r="E159" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F159" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B160" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C160" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D160">
         <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="F160" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C161" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E161" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="F161" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B162" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C162" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D162">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E162" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F162" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B163" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C163" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D163">
         <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F163" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B164" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C164" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D164">
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F164" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B165" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C165" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="D165">
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F165" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="C166" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="D166">
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="F166" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B167" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C167" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D167">
         <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F167" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B168" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C168" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D168">
         <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="F168" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B169" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C169" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="D169">
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F169" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C170" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="D170">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F170" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B171" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C171" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D171">
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F171" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B172" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C172" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="D172">
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F172" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B173" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C173" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="D173">
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F173" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B174" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C174" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="D174">
         <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="F174" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C175" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D175">
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F175" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B176" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C176" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D176">
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F176" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B177" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C177" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D177">
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="F177" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B178" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C178" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="D178">
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="F178" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B179" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C179" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="D179">
         <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F179" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B180" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C180" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="D180">
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="F180" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B181" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C181" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="D181">
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F181" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B182" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="C182" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="D182">
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F182" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B183" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C183" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="D183">
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="F183" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="B184" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C184" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="D184">
         <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F184" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B185" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="D185">
         <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F185" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C186" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D186">
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="F186" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B187" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C187" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="D187">
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="F187" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C188" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D188">
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F188" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C189" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="D189">
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F189" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C190" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="D190">
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="F190" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B191" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C191" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="D191">
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="F191" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C192" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D192">
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F192" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B193" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C193" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="D193">
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F193" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B194" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C194" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D194">
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="F194" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B195" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D195">
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F195" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B196" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C196" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="D196">
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="F196" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B197" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C197" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D197">
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="F197" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="B198" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C198" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D198">
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F198" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B199" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="C199" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="D199">
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="F199" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B200" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C200" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="D200">
         <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F200" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B201" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C201" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D201">
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="F201" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B202" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="C202" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D202">
         <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="F202" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="B203" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C203" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="D203">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="F203" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B204" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C204" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D204">
         <v>7</v>
       </c>
       <c r="E204" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F204" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C205" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="D205">
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="F205" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B206" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C206" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D206">
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F206" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B207" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="D207">
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="F207" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="B208" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C208" t="s">
-        <v>303</v>
+        <v>375</v>
       </c>
       <c r="D208">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="F208" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C209" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="D209">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="F209" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C210" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D210">
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="F210" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E211" t="s">
+        <v>546</v>
       </c>
       <c r="F211" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B212" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C212" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="D212">
         <v>8</v>
       </c>
+      <c r="E212" t="s">
+        <v>547</v>
+      </c>
       <c r="F212" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B213" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C213" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="D213">
-        <v>11</v>
-      </c>
-      <c r="E213" t="s">
-        <v>535</v>
+        <v>8</v>
       </c>
       <c r="F213" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B214" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C214" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F214" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B215" t="s">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="C215" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="D215">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E215" t="s">
+        <v>548</v>
       </c>
       <c r="F215" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B216" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C216" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="D216">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E216" t="s">
+        <v>549</v>
       </c>
       <c r="F216" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B217" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C217" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D217">
         <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B218" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C218" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D218">
         <v>12</v>
       </c>
-      <c r="E218" t="s">
-        <v>536</v>
-      </c>
       <c r="F218" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B219" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="C219" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="D219">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B220" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="C220" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="D220">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E220" t="s">
+        <v>550</v>
       </c>
       <c r="F220" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B221" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="C221" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="D221">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B222" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C222" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D222">
         <v>13</v>
       </c>
       <c r="F222" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B223" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C223" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D223">
         <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="F223" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B224" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C224" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D224">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F224" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B225" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C225" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D225">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F225" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B226" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C226" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D226">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F226" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B227" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C227" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="D227">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>552</v>
       </c>
       <c r="F227" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B228" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C228" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D228">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F228" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B229" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C229" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D229">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F229" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B230" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C230" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D230">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F230" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B231" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C231" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D231">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F231" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B232" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C232" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D232">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F232" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B233" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C233" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D233">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F233" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B234" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="C234" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D234">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F234" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B235" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="C235" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D235">
+        <v>20</v>
+      </c>
+      <c r="F235" t="s">
+        <v>556</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" t="s">
+        <v>311</v>
+      </c>
+      <c r="C236" t="s">
+        <v>384</v>
+      </c>
+      <c r="D236">
         <v>29</v>
       </c>
-      <c r="F235" t="s">
-        <v>541</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>558</v>
+      <c r="F236" t="s">
+        <v>556</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>57</v>
+      </c>
+      <c r="B237" t="s">
+        <v>312</v>
+      </c>
+      <c r="C237" t="s">
+        <v>385</v>
+      </c>
+      <c r="D237">
+        <v>29</v>
+      </c>
+      <c r="F237" t="s">
+        <v>556</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>311</v>
+      </c>
+      <c r="C238" t="s">
+        <v>384</v>
+      </c>
+      <c r="D238">
+        <v>29</v>
+      </c>
+      <c r="F238" t="s">
+        <v>556</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>57</v>
+      </c>
+      <c r="B239" t="s">
+        <v>312</v>
+      </c>
+      <c r="C239" t="s">
+        <v>385</v>
+      </c>
+      <c r="D239">
+        <v>29</v>
+      </c>
+      <c r="F239" t="s">
+        <v>556</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7483,6 +7617,10 @@
     <hyperlink ref="G233" r:id="rId232"/>
     <hyperlink ref="G234" r:id="rId233"/>
     <hyperlink ref="G235" r:id="rId234"/>
+    <hyperlink ref="G236" r:id="rId235"/>
+    <hyperlink ref="G237" r:id="rId236"/>
+    <hyperlink ref="G238" r:id="rId237"/>
+    <hyperlink ref="G239" r:id="rId238"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
